--- a/тппо/метрики.xlsx
+++ b/тппо/метрики.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Софья Зименкова\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\study\тппо\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DABA5A5-2F1E-421F-9C1E-6A2EED1086EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1E3188-1765-4B05-AED7-EF4A826056A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3915" windowWidth="21600" windowHeight="11385" xr2:uid="{CCCFB933-5F72-7E43-873B-A960A3B68B39}"/>
+    <workbookView xWindow="-4480" yWindow="1810" windowWidth="13690" windowHeight="7810" xr2:uid="{CCCFB933-5F72-7E43-873B-A960A3B68B39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -212,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -233,6 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -260,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -577,30 +578,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29270DAB-7104-2649-B0DD-7221BAC42264}">
   <dimension ref="A1:CF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N66" sqref="N66"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="45" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1">
         <f>SUM(C1:M1)</f>
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C1">
-        <f>SUM(C11,C19,C26,C31,C37,C43)</f>
+        <f>SUM(C11,C19,C26,C31,C37,C43,C49)</f>
         <v>51</v>
       </c>
       <c r="D1">
-        <f t="shared" ref="D1:M1" si="0">SUM(D11,D19,D26,D31,D37,D43)</f>
-        <v>7</v>
+        <f t="shared" ref="D1:M1" si="0">SUM(D11,D19,D26,D31,D37,D43,D49)</f>
+        <v>9</v>
       </c>
       <c r="E1">
         <f t="shared" si="0"/>
@@ -612,7 +613,7 @@
       </c>
       <c r="G1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1">
         <f t="shared" si="0"/>
@@ -624,7 +625,7 @@
       </c>
       <c r="J1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K1">
         <f t="shared" si="0"/>
@@ -640,14 +641,14 @@
       </c>
       <c r="P1">
         <f>SUM(Q1:AA1)</f>
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Q1">
-        <f>SUM(Q11,Q18,Q23,Q28,Q36,Q42)</f>
+        <f>SUM(Q11,Q18,Q23,Q28,Q36,Q42,Q49)</f>
         <v>51</v>
       </c>
       <c r="R1">
-        <f t="shared" ref="R1:AA1" si="1">SUM(R11,R18,R23,R28,R36,R42)</f>
+        <f t="shared" ref="R1:AA1" si="1">SUM(R11,R18,R23,R28,R36,R42,R49)</f>
         <v>2</v>
       </c>
       <c r="S1">
@@ -660,11 +661,11 @@
       </c>
       <c r="U1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="W1">
         <f t="shared" si="1"/>
@@ -686,55 +687,103 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
+      <c r="AD1">
+        <f>SUM(AE1:AO1)</f>
+        <v>98</v>
+      </c>
+      <c r="AE1">
+        <f>SUM(AE11,AE17,AE24,AE29,AE36,AE43,AE49)</f>
+        <v>43</v>
+      </c>
+      <c r="AF1">
+        <f t="shared" ref="AF1:AO1" si="2">SUM(AF11,AF17,AF24,AF29,AF36,AF43,AF49)</f>
+        <v>9</v>
+      </c>
+      <c r="AG1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ1">
+        <f>SUM(AJ11,AJ17,AJ24,AJ29,AJ36,AJ43,AJ49)</f>
+        <v>33</v>
+      </c>
+      <c r="AK1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AN1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AO1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="AR1">
         <f>SUM(AS1:BC1)</f>
-        <v>106.5</v>
+        <v>118.5</v>
       </c>
       <c r="AS1">
-        <f>SUM(AS11,AS17,AS23,AS27,AS32,AS38)</f>
+        <f>SUM(AS11,AS17,AS23,AS27,AS32,AS38,AS49)</f>
         <v>34</v>
       </c>
       <c r="AT1">
-        <f t="shared" ref="AT1:BC1" si="2">SUM(AT11,AT17,AT23,AT27,AT32,AT38)</f>
+        <f t="shared" ref="AT1:BC1" si="3">SUM(AT11,AT17,AT23,AT27,AT32,AT38,AT49)</f>
         <v>0</v>
       </c>
       <c r="AU1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AV1">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>11.5</v>
       </c>
       <c r="AW1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AX1">
-        <f t="shared" si="2"/>
-        <v>9.5</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AY1">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="AZ1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BA1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="BB1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="BC1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="BF1" s="29">
+      <c r="BF1" s="20">
         <f>SUM(BG1:BQ1)</f>
         <v>93</v>
       </c>
@@ -743,43 +792,43 @@
         <v>39</v>
       </c>
       <c r="BH1">
-        <f t="shared" ref="BH1:BQ1" si="3">SUM(BH10,BH15,BH22,BH26,BH33,BH38)</f>
+        <f t="shared" ref="BH1:BQ1" si="4">SUM(BH10,BH15,BH22,BH26,BH33,BH38)</f>
         <v>3</v>
       </c>
       <c r="BI1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BJ1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="BK1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BL1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="BM1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="BN1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BO1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BP1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="BQ1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="BT1">
@@ -787,51 +836,51 @@
         <v>126</v>
       </c>
       <c r="BU1">
-        <f>SUM(BU19,BU25,BU30,BU38,BU48)</f>
+        <f t="shared" ref="BU1:CE1" si="5">SUM(BU19,BU25,BU30,BU38,BU48)</f>
         <v>43</v>
       </c>
       <c r="BV1">
-        <f>SUM(BV19,BV25,BV30,BV38,BV48)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BW1">
-        <f>SUM(BW19,BW25,BW30,BW38,BW48)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BX1">
-        <f>SUM(BX19,BX25,BX30,BX38,BX48)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="BY1">
-        <f>SUM(BY19,BY25,BY30,BY38,BY48)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BZ1">
-        <f>SUM(BZ19,BZ25,BZ30,BZ38,BZ48)</f>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="CA1">
-        <f>SUM(CA19,CA25,CA30,CA38,CA48)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="CB1">
-        <f>SUM(CB19,CB25,CB30,CB38,CB48)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="CC1">
-        <f>SUM(CC19,CC25,CC30,CC38,CC48)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="CD1">
-        <f>SUM(CD19,CD25,CD30,CD38,CD48)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="CE1">
-        <f>SUM(CE19,CE25,CE30,CE38,CE48)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:83" x14ac:dyDescent="0.35">
       <c r="B5" s="16">
         <v>45330</v>
       </c>
@@ -1094,18 +1143,24 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
+      <c r="AD5" s="16">
+        <v>45330</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="3"/>
       <c r="AP5" s="5"/>
       <c r="AQ5" s="5"/>
       <c r="AR5" s="16">
@@ -1155,21 +1210,21 @@
       <c r="BT5" s="16">
         <v>45330</v>
       </c>
-      <c r="BU5" s="20" t="s">
+      <c r="BU5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="BV5" s="21"/>
-      <c r="BW5" s="21"/>
-      <c r="BX5" s="21"/>
-      <c r="BY5" s="21"/>
-      <c r="BZ5" s="21"/>
-      <c r="CA5" s="21"/>
-      <c r="CB5" s="21"/>
-      <c r="CC5" s="21"/>
-      <c r="CD5" s="21"/>
-      <c r="CE5" s="22"/>
+      <c r="BV5" s="22"/>
+      <c r="BW5" s="22"/>
+      <c r="BX5" s="22"/>
+      <c r="BY5" s="22"/>
+      <c r="BZ5" s="22"/>
+      <c r="CA5" s="22"/>
+      <c r="CB5" s="22"/>
+      <c r="CC5" s="22"/>
+      <c r="CD5" s="22"/>
+      <c r="CE5" s="23"/>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:83" x14ac:dyDescent="0.35">
       <c r="C6" s="4">
         <v>2</v>
       </c>
@@ -1206,8 +1261,9 @@
       <c r="AA6" s="6"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
+      <c r="AE6" s="4">
+        <v>2</v>
+      </c>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
@@ -1217,7 +1273,7 @@
       <c r="AL6" s="5"/>
       <c r="AM6" s="5"/>
       <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
+      <c r="AO6" s="6"/>
       <c r="AP6" s="5"/>
       <c r="AQ6" s="5"/>
       <c r="AS6" s="4">
@@ -1252,19 +1308,19 @@
       <c r="BQ6" s="6"/>
       <c r="BR6" s="5"/>
       <c r="BS6" s="5"/>
-      <c r="BU6" s="23"/>
-      <c r="BV6" s="24"/>
-      <c r="BW6" s="24"/>
-      <c r="BX6" s="24"/>
-      <c r="BY6" s="24"/>
-      <c r="BZ6" s="24"/>
-      <c r="CA6" s="24"/>
-      <c r="CB6" s="24"/>
-      <c r="CC6" s="24"/>
-      <c r="CD6" s="24"/>
-      <c r="CE6" s="25"/>
+      <c r="BU6" s="24"/>
+      <c r="BV6" s="25"/>
+      <c r="BW6" s="25"/>
+      <c r="BX6" s="25"/>
+      <c r="BY6" s="25"/>
+      <c r="BZ6" s="25"/>
+      <c r="CA6" s="25"/>
+      <c r="CB6" s="25"/>
+      <c r="CC6" s="25"/>
+      <c r="CD6" s="25"/>
+      <c r="CE6" s="26"/>
     </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:83" x14ac:dyDescent="0.35">
       <c r="C7" s="4">
         <v>2</v>
       </c>
@@ -1293,8 +1349,9 @@
       <c r="AA7" s="6"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
+      <c r="AE7" s="4">
+        <v>2</v>
+      </c>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
@@ -1304,7 +1361,7 @@
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
       <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
+      <c r="AO7" s="6"/>
       <c r="AP7" s="5"/>
       <c r="AQ7" s="5"/>
       <c r="AS7" s="4">
@@ -1337,19 +1394,19 @@
       <c r="BQ7" s="6"/>
       <c r="BR7" s="5"/>
       <c r="BS7" s="5"/>
-      <c r="BU7" s="23"/>
-      <c r="BV7" s="24"/>
-      <c r="BW7" s="24"/>
-      <c r="BX7" s="24"/>
-      <c r="BY7" s="24"/>
-      <c r="BZ7" s="24"/>
-      <c r="CA7" s="24"/>
-      <c r="CB7" s="24"/>
-      <c r="CC7" s="24"/>
-      <c r="CD7" s="24"/>
-      <c r="CE7" s="25"/>
+      <c r="BU7" s="24"/>
+      <c r="BV7" s="25"/>
+      <c r="BW7" s="25"/>
+      <c r="BX7" s="25"/>
+      <c r="BY7" s="25"/>
+      <c r="BZ7" s="25"/>
+      <c r="CA7" s="25"/>
+      <c r="CB7" s="25"/>
+      <c r="CC7" s="25"/>
+      <c r="CD7" s="25"/>
+      <c r="CE7" s="26"/>
     </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:83" x14ac:dyDescent="0.35">
       <c r="C8" s="4">
         <v>2</v>
       </c>
@@ -1378,8 +1435,9 @@
       <c r="AA8" s="6"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
+      <c r="AE8" s="12">
+        <v>2</v>
+      </c>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
@@ -1389,7 +1447,7 @@
       <c r="AL8" s="5"/>
       <c r="AM8" s="5"/>
       <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
+      <c r="AO8" s="6"/>
       <c r="AP8" s="5"/>
       <c r="AQ8" s="5"/>
       <c r="AS8" s="12">
@@ -1422,19 +1480,19 @@
       <c r="BQ8" s="6"/>
       <c r="BR8" s="5"/>
       <c r="BS8" s="5"/>
-      <c r="BU8" s="23"/>
-      <c r="BV8" s="24"/>
-      <c r="BW8" s="24"/>
-      <c r="BX8" s="24"/>
-      <c r="BY8" s="24"/>
-      <c r="BZ8" s="24"/>
-      <c r="CA8" s="24"/>
-      <c r="CB8" s="24"/>
-      <c r="CC8" s="24"/>
-      <c r="CD8" s="24"/>
-      <c r="CE8" s="25"/>
+      <c r="BU8" s="24"/>
+      <c r="BV8" s="25"/>
+      <c r="BW8" s="25"/>
+      <c r="BX8" s="25"/>
+      <c r="BY8" s="25"/>
+      <c r="BZ8" s="25"/>
+      <c r="CA8" s="25"/>
+      <c r="CB8" s="25"/>
+      <c r="CC8" s="25"/>
+      <c r="CD8" s="25"/>
+      <c r="CE8" s="26"/>
     </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.35">
       <c r="C9" s="4">
         <v>2</v>
       </c>
@@ -1463,8 +1521,9 @@
       <c r="AA9" s="6"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
+      <c r="AE9" s="12">
+        <v>2</v>
+      </c>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -1474,7 +1533,7 @@
       <c r="AL9" s="5"/>
       <c r="AM9" s="5"/>
       <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
+      <c r="AO9" s="6"/>
       <c r="AP9" s="5"/>
       <c r="AQ9" s="5"/>
       <c r="AS9" s="12">
@@ -1507,19 +1566,19 @@
       <c r="BQ9" s="6"/>
       <c r="BR9" s="5"/>
       <c r="BS9" s="5"/>
-      <c r="BU9" s="23"/>
-      <c r="BV9" s="24"/>
-      <c r="BW9" s="24"/>
-      <c r="BX9" s="24"/>
-      <c r="BY9" s="24"/>
-      <c r="BZ9" s="24"/>
-      <c r="CA9" s="24"/>
-      <c r="CB9" s="24"/>
-      <c r="CC9" s="24"/>
-      <c r="CD9" s="24"/>
-      <c r="CE9" s="25"/>
+      <c r="BU9" s="24"/>
+      <c r="BV9" s="25"/>
+      <c r="BW9" s="25"/>
+      <c r="BX9" s="25"/>
+      <c r="BY9" s="25"/>
+      <c r="BZ9" s="25"/>
+      <c r="CA9" s="25"/>
+      <c r="CB9" s="25"/>
+      <c r="CC9" s="25"/>
+      <c r="CD9" s="25"/>
+      <c r="CE9" s="26"/>
     </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:83" x14ac:dyDescent="0.35">
       <c r="C10" s="4">
         <v>1</v>
       </c>
@@ -1548,8 +1607,9 @@
       <c r="AA10" s="6"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
+      <c r="AE10" s="12">
+        <v>1</v>
+      </c>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
@@ -1559,7 +1619,7 @@
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
       <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
+      <c r="AO10" s="6"/>
       <c r="AP10" s="5"/>
       <c r="AQ10" s="5"/>
       <c r="AS10" s="12">
@@ -1581,47 +1641,47 @@
         <v>45343</v>
       </c>
       <c r="BG10" s="7">
-        <f t="shared" ref="BG10:BQ10" si="4">SUM(BG5:BG9)</f>
+        <f t="shared" ref="BG10:BQ10" si="6">SUM(BG5:BG9)</f>
         <v>8</v>
       </c>
       <c r="BH10" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI10" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ10" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BK10" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BL10" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM10" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BN10" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BO10" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BP10" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="BQ10" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="BR10" s="10">
@@ -1629,64 +1689,64 @@
         <v>16</v>
       </c>
       <c r="BS10" s="5"/>
-      <c r="BU10" s="23"/>
-      <c r="BV10" s="24"/>
-      <c r="BW10" s="24"/>
-      <c r="BX10" s="24"/>
-      <c r="BY10" s="24"/>
-      <c r="BZ10" s="24"/>
-      <c r="CA10" s="24"/>
-      <c r="CB10" s="24"/>
-      <c r="CC10" s="24"/>
-      <c r="CD10" s="24"/>
-      <c r="CE10" s="25"/>
+      <c r="BU10" s="24"/>
+      <c r="BV10" s="25"/>
+      <c r="BW10" s="25"/>
+      <c r="BX10" s="25"/>
+      <c r="BY10" s="25"/>
+      <c r="BZ10" s="25"/>
+      <c r="CA10" s="25"/>
+      <c r="CB10" s="25"/>
+      <c r="CC10" s="25"/>
+      <c r="CD10" s="25"/>
+      <c r="CE10" s="26"/>
     </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:83" x14ac:dyDescent="0.35">
       <c r="B11" s="16">
         <v>45343</v>
       </c>
       <c r="C11" s="7">
-        <f t="shared" ref="C11:M11" si="5">SUM(C5:C10)</f>
+        <f t="shared" ref="C11:M11" si="7">SUM(C5:C10)</f>
         <v>11</v>
       </c>
       <c r="D11" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E11" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I11" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J11" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L11" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="M11" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N11" s="10">
@@ -1701,43 +1761,43 @@
         <v>9</v>
       </c>
       <c r="R11" s="8">
-        <f t="shared" ref="R11:AA11" si="6">SUM(R5:R10)</f>
+        <f t="shared" ref="R11:AA11" si="8">SUM(R5:R10)</f>
         <v>0</v>
       </c>
       <c r="S11" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="T11" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U11" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V11" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W11" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X11" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y11" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z11" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AA11" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB11" s="10">
@@ -1745,65 +1805,103 @@
         <v>14</v>
       </c>
       <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
+      <c r="AD11" s="16">
+        <v>45343</v>
+      </c>
+      <c r="AE11" s="7">
+        <f>SUM(AE5:AE10)</f>
+        <v>11</v>
+      </c>
+      <c r="AF11" s="8">
+        <f>SUM(AF5:AF10)</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="8">
+        <f>SUM(AG5:AG10)</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="8">
+        <f>SUM(AH5:AH10)</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="8">
+        <f>SUM(AI5:AI10)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="8">
+        <f>SUM(AJ5:AJ10)</f>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="8">
+        <f>SUM(AK5:AK10)</f>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="8">
+        <f>SUM(AL5:AL10)</f>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="8">
+        <f>SUM(AM5:AM10)</f>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="8">
+        <f>SUM(AN5:AN10)</f>
+        <v>2</v>
+      </c>
+      <c r="AO11" s="9">
+        <f>SUM(AO5:AO10)</f>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="10">
+        <f>SUM(AE11:AO11)</f>
+        <v>13</v>
+      </c>
       <c r="AQ11" s="5"/>
       <c r="AR11" s="16">
         <v>45343</v>
       </c>
       <c r="AS11" s="7">
-        <f t="shared" ref="AS11:BC11" si="7">SUM(AS5:AS10)</f>
+        <f t="shared" ref="AS11:BC11" si="9">SUM(AS5:AS10)</f>
         <v>10</v>
       </c>
       <c r="AT11" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AU11" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AV11" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AW11" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AX11" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AY11" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AZ11" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BA11" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BB11" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="BC11" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="BD11" s="10">
@@ -1827,19 +1925,19 @@
       <c r="BT11" s="16">
         <v>45343</v>
       </c>
-      <c r="BU11" s="26"/>
-      <c r="BV11" s="27"/>
-      <c r="BW11" s="27"/>
-      <c r="BX11" s="27"/>
-      <c r="BY11" s="27"/>
-      <c r="BZ11" s="27"/>
-      <c r="CA11" s="27"/>
-      <c r="CB11" s="27"/>
-      <c r="CC11" s="27"/>
-      <c r="CD11" s="27"/>
-      <c r="CE11" s="28"/>
+      <c r="BU11" s="27"/>
+      <c r="BV11" s="28"/>
+      <c r="BW11" s="28"/>
+      <c r="BX11" s="28"/>
+      <c r="BY11" s="28"/>
+      <c r="BZ11" s="28"/>
+      <c r="CA11" s="28"/>
+      <c r="CB11" s="28"/>
+      <c r="CC11" s="28"/>
+      <c r="CD11" s="28"/>
+      <c r="CE11" s="29"/>
     </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:83" x14ac:dyDescent="0.35">
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -1853,7 +1951,6 @@
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
@@ -1914,7 +2011,7 @@
       <c r="CD12" s="5"/>
       <c r="CE12" s="5"/>
     </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:83" x14ac:dyDescent="0.35">
       <c r="B13" s="16">
         <v>45344</v>
       </c>
@@ -1961,18 +2058,26 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
+      <c r="AD13" s="16">
+        <v>45344</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="3"/>
       <c r="AP13" s="5"/>
       <c r="AQ13" s="5"/>
       <c r="AR13" s="16">
@@ -1984,7 +2089,7 @@
       <c r="AT13" s="2"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW13" s="2"/>
       <c r="AX13" s="2"/>
@@ -2037,7 +2142,7 @@
       </c>
       <c r="CE13" s="3"/>
     </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:83" x14ac:dyDescent="0.35">
       <c r="C14" s="4">
         <v>2</v>
       </c>
@@ -2074,8 +2179,9 @@
       <c r="AA14" s="6"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
+      <c r="AE14" s="12">
+        <v>2</v>
+      </c>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -2084,8 +2190,10 @@
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
       <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
+      <c r="AN14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="6"/>
       <c r="AP14" s="5"/>
       <c r="AQ14" s="5"/>
       <c r="AS14" s="12">
@@ -2094,7 +2202,7 @@
       <c r="AT14" s="5"/>
       <c r="AU14" s="5"/>
       <c r="AV14" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW14" s="5"/>
       <c r="AX14" s="5"/>
@@ -2139,7 +2247,7 @@
       <c r="CD14" s="5"/>
       <c r="CE14" s="6"/>
     </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:83" x14ac:dyDescent="0.35">
       <c r="C15" s="4">
         <v>1</v>
       </c>
@@ -2170,8 +2278,9 @@
       <c r="AA15" s="6"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
+      <c r="AE15" s="12">
+        <v>1</v>
+      </c>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
@@ -2180,8 +2289,10 @@
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
       <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
+      <c r="AN15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="6"/>
       <c r="AP15" s="5"/>
       <c r="AQ15" s="5"/>
       <c r="AS15" s="12">
@@ -2189,9 +2300,7 @@
       </c>
       <c r="AT15" s="5"/>
       <c r="AU15" s="5"/>
-      <c r="AV15" s="5">
-        <v>1</v>
-      </c>
+      <c r="AV15" s="5"/>
       <c r="AW15" s="5"/>
       <c r="AX15" s="5"/>
       <c r="AY15" s="5"/>
@@ -2205,47 +2314,47 @@
         <v>45357</v>
       </c>
       <c r="BG15" s="7">
-        <f t="shared" ref="BG15:BQ15" si="8">SUM(BG12:BG14)</f>
+        <f t="shared" ref="BG15:BQ15" si="10">SUM(BG12:BG14)</f>
         <v>5</v>
       </c>
       <c r="BH15" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BI15" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BJ15" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="BK15" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BL15" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BM15" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BN15" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BO15" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BP15" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="BQ15" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BR15" s="10">
@@ -2269,7 +2378,7 @@
       <c r="CD15" s="5"/>
       <c r="CE15" s="6"/>
     </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:83" x14ac:dyDescent="0.35">
       <c r="C16" s="4">
         <v>2</v>
       </c>
@@ -2298,8 +2407,9 @@
       <c r="AA16" s="6"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
+      <c r="AE16" s="12">
+        <v>2</v>
+      </c>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
@@ -2308,9 +2418,14 @@
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
+      <c r="AN16" s="10">
+        <v>2</v>
+      </c>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="5">
+        <f>AP17+AP11</f>
+        <v>27</v>
+      </c>
       <c r="AQ16" s="5"/>
       <c r="AS16" s="4"/>
       <c r="AT16" s="5"/>
@@ -2354,7 +2469,7 @@
       <c r="CD16" s="5"/>
       <c r="CE16" s="6"/>
     </row>
-    <row r="17" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:84" x14ac:dyDescent="0.35">
       <c r="C17" s="4">
         <v>1</v>
       </c>
@@ -2386,65 +2501,103 @@
         <v>30</v>
       </c>
       <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
+      <c r="AD17" s="16">
+        <v>45357</v>
+      </c>
+      <c r="AE17" s="7">
+        <f t="shared" ref="AE17:AO17" si="11">SUM(AE13:AE16)</f>
+        <v>7</v>
+      </c>
+      <c r="AF17" s="8">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AG17" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="8">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AO17" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP17" s="10">
+        <f>SUM(AE17:AO17)</f>
+        <v>14</v>
+      </c>
       <c r="AQ17" s="5"/>
       <c r="AR17" s="16">
         <v>45357</v>
       </c>
       <c r="AS17" s="7">
-        <f t="shared" ref="AS17:BC17" si="9">SUM(AS13:AS16)</f>
+        <f t="shared" ref="AS17:BC17" si="12">SUM(AS13:AS16)</f>
         <v>6</v>
       </c>
       <c r="AT17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AU17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AV17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AW17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AX17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AY17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AZ17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BA17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BB17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="BC17" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="BD17" s="10">
@@ -2487,7 +2640,7 @@
       <c r="CD17" s="5"/>
       <c r="CE17" s="6"/>
     </row>
-    <row r="18" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:84" x14ac:dyDescent="0.35">
       <c r="C18" s="4">
         <v>2</v>
       </c>
@@ -2513,43 +2666,43 @@
         <v>9</v>
       </c>
       <c r="R18" s="8">
-        <f t="shared" ref="R18:AA18" si="10">SUM(R13:R17)</f>
+        <f t="shared" ref="R18:AA18" si="13">SUM(R13:R17)</f>
         <v>0</v>
       </c>
       <c r="S18" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T18" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="U18" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V18" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W18" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X18" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y18" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z18" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AA18" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB18" s="10">
@@ -2557,7 +2710,6 @@
         <v>16</v>
       </c>
       <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
@@ -2615,52 +2767,52 @@
       <c r="CD18" s="5"/>
       <c r="CE18" s="6"/>
     </row>
-    <row r="19" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:84" x14ac:dyDescent="0.35">
       <c r="B19" s="16">
         <v>45357</v>
       </c>
       <c r="C19" s="7">
-        <f t="shared" ref="C19:M19" si="11">SUM(C13:C18)</f>
+        <f t="shared" ref="C19:M19" si="14">SUM(C13:C18)</f>
         <v>10</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="M19" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N19" s="10">
@@ -2680,18 +2832,24 @@
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
+      <c r="AD19" s="16">
+        <v>45358</v>
+      </c>
+      <c r="AE19" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="3"/>
       <c r="AP19" s="5"/>
       <c r="AQ19" s="5"/>
       <c r="AR19" s="16">
@@ -2702,12 +2860,12 @@
       </c>
       <c r="AT19" s="2"/>
       <c r="AU19" s="2"/>
-      <c r="AV19" s="17">
-        <v>2</v>
+      <c r="AV19" s="30">
+        <v>1.5</v>
       </c>
       <c r="AW19" s="2"/>
       <c r="AX19" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY19" s="2"/>
       <c r="AZ19" s="2"/>
@@ -2737,47 +2895,47 @@
         <v>45357</v>
       </c>
       <c r="BU19" s="7">
-        <f t="shared" ref="BU19:CE19" si="12">SUM(BU13:BU18)</f>
+        <f t="shared" ref="BU19:CE19" si="15">SUM(BU13:BU18)</f>
         <v>10</v>
       </c>
       <c r="BV19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BW19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BX19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="BY19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BZ19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CA19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CB19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CC19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CD19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="CE19" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CF19">
@@ -2785,7 +2943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:84" x14ac:dyDescent="0.35">
       <c r="P20" s="16">
         <v>45358</v>
       </c>
@@ -2810,8 +2968,9 @@
       </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
+      <c r="AE20" s="12">
+        <v>2</v>
+      </c>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
@@ -2820,8 +2979,10 @@
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
       <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
+      <c r="AN20" s="10">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="6"/>
       <c r="AP20" s="5"/>
       <c r="AQ20" s="5"/>
       <c r="AS20" s="4">
@@ -2829,12 +2990,10 @@
       </c>
       <c r="AT20" s="5"/>
       <c r="AU20" s="5"/>
-      <c r="AV20" s="10">
-        <v>2</v>
-      </c>
+      <c r="AV20" s="10"/>
       <c r="AW20" s="5"/>
       <c r="AX20" s="10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AY20" s="5"/>
       <c r="AZ20" s="5"/>
@@ -2870,7 +3029,7 @@
       <c r="CD20" s="5"/>
       <c r="CE20" s="5"/>
     </row>
-    <row r="21" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:84" x14ac:dyDescent="0.35">
       <c r="B21" s="16">
         <v>45358</v>
       </c>
@@ -2910,8 +3069,9 @@
       <c r="AA21" s="6"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
+      <c r="AE21" s="12">
+        <v>1</v>
+      </c>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
@@ -2920,8 +3080,10 @@
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
       <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
+      <c r="AN21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="6"/>
       <c r="AP21" s="5"/>
       <c r="AQ21" s="5"/>
       <c r="AS21" s="4">
@@ -2930,9 +3092,7 @@
       <c r="AT21" s="5"/>
       <c r="AU21" s="5"/>
       <c r="AW21" s="5"/>
-      <c r="AX21" s="10">
-        <v>2</v>
-      </c>
+      <c r="AX21" s="10"/>
       <c r="AY21" s="5"/>
       <c r="AZ21" s="5"/>
       <c r="BA21" s="5"/>
@@ -2979,7 +3139,7 @@
       </c>
       <c r="CE21" s="3"/>
     </row>
-    <row r="22" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:84" x14ac:dyDescent="0.35">
       <c r="C22" s="4">
         <v>2</v>
       </c>
@@ -3011,8 +3171,9 @@
         <v>43</v>
       </c>
       <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
+      <c r="AE22" s="12">
+        <v>1</v>
+      </c>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -3022,7 +3183,7 @@
       <c r="AL22" s="5"/>
       <c r="AM22" s="5"/>
       <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
+      <c r="AO22" s="6"/>
       <c r="AP22" s="5"/>
       <c r="AQ22" s="5"/>
       <c r="AS22" s="4"/>
@@ -3037,54 +3198,54 @@
       <c r="BC22" s="6"/>
       <c r="BD22" s="5">
         <f>BD23+BD16</f>
-        <v>54.5</v>
+        <v>49.5</v>
       </c>
       <c r="BE22" s="5"/>
       <c r="BF22" s="16">
         <v>45371</v>
       </c>
       <c r="BG22" s="7">
-        <f t="shared" ref="BG22:BQ22" si="13">SUM(BG17:BG21)</f>
+        <f t="shared" ref="BG22:BQ22" si="16">SUM(BG17:BG21)</f>
         <v>8</v>
       </c>
       <c r="BH22" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BI22" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ22" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="BK22" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BL22" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BM22" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BN22" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BO22" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BP22" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="BQ22" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BR22" s="10">
@@ -3108,7 +3269,7 @@
       <c r="CD22" s="5"/>
       <c r="CE22" s="6"/>
     </row>
-    <row r="23" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:84" x14ac:dyDescent="0.35">
       <c r="C23" s="4">
         <v>1</v>
       </c>
@@ -3130,43 +3291,43 @@
         <v>6</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" ref="R23:AA23" si="14">SUM(R20:R22)</f>
+        <f t="shared" ref="R23:AA23" si="17">SUM(R20:R22)</f>
         <v>0</v>
       </c>
       <c r="S23" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T23" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U23" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V23" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W23" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X23" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="Y23" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z23" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="AA23" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AB23" s="10">
@@ -3174,8 +3335,9 @@
         <v>13</v>
       </c>
       <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
+      <c r="AE23" s="12">
+        <v>2</v>
+      </c>
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
@@ -3185,59 +3347,62 @@
       <c r="AL23" s="5"/>
       <c r="AM23" s="5"/>
       <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="5">
+        <f>AP24+AP16</f>
+        <v>38</v>
+      </c>
       <c r="AQ23" s="5"/>
       <c r="AR23" s="16">
         <v>45371</v>
       </c>
       <c r="AS23" s="7">
-        <f t="shared" ref="AS23:BC23" si="15">SUM(AS19:AS22)</f>
+        <f t="shared" ref="AS23:BC23" si="18">SUM(AS19:AS22)</f>
         <v>5</v>
       </c>
       <c r="AT23" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AU23" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AV23" s="8">
-        <f t="shared" si="15"/>
-        <v>4</v>
+        <f t="shared" si="18"/>
+        <v>1.5</v>
       </c>
       <c r="AW23" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AX23" s="8">
         <f>SUM(AX19:AX22)</f>
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AY23" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ23" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BA23" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BB23" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="BC23" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BD23" s="10">
         <f>SUM(AS23:BC23)</f>
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="BE23" s="5"/>
       <c r="BG23" s="5"/>
@@ -3269,7 +3434,7 @@
       <c r="CD23" s="5"/>
       <c r="CE23" s="6"/>
     </row>
-    <row r="24" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:84" x14ac:dyDescent="0.35">
       <c r="C24" s="4">
         <v>1</v>
       </c>
@@ -3296,19 +3461,57 @@
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
+      <c r="AD24" s="16">
+        <v>45371</v>
+      </c>
+      <c r="AE24" s="7">
+        <f t="shared" ref="AE24:AO24" si="19">SUM(AE19:AE23)</f>
+        <v>8</v>
+      </c>
+      <c r="AF24" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AL24" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM24" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AN24" s="8">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="AO24" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AP24" s="10">
+        <f>SUM(AE24:AO24)</f>
+        <v>11</v>
+      </c>
       <c r="AQ24" s="5"/>
       <c r="AS24" s="5"/>
       <c r="AT24" s="5"/>
@@ -3360,7 +3563,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:84" x14ac:dyDescent="0.35">
       <c r="C25" s="4">
         <v>2</v>
       </c>
@@ -3400,7 +3603,6 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
@@ -3426,9 +3628,7 @@
         <v>1</v>
       </c>
       <c r="AW25" s="2"/>
-      <c r="AX25" s="17">
-        <v>3</v>
-      </c>
+      <c r="AX25" s="17"/>
       <c r="AY25" s="2"/>
       <c r="AZ25" s="2"/>
       <c r="BA25" s="2"/>
@@ -3458,47 +3658,47 @@
         <v>45371</v>
       </c>
       <c r="BU25" s="7">
-        <f t="shared" ref="BU25:CE25" si="16">SUM(BU21:BU24)</f>
+        <f t="shared" ref="BU25:CE25" si="20">SUM(BU21:BU24)</f>
         <v>7</v>
       </c>
       <c r="BV25" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BW25" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BX25" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="BY25" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BZ25" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CA25" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CB25" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CC25" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CD25" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="CE25" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="CF25" s="10">
@@ -3506,52 +3706,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:84" x14ac:dyDescent="0.35">
       <c r="B26" s="16">
         <v>45371</v>
       </c>
       <c r="C26" s="7">
-        <f t="shared" ref="C26:M26" si="17">SUM(C21:C25)</f>
+        <f t="shared" ref="C26:M26" si="21">SUM(C21:C25)</f>
         <v>8</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L26" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="M26" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N26" s="10">
@@ -3575,18 +3775,22 @@
       <c r="AA26" s="6"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="5"/>
-      <c r="AN26" s="5"/>
-      <c r="AO26" s="5"/>
+      <c r="AD26" s="16">
+        <v>45372</v>
+      </c>
+      <c r="AE26" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="3"/>
       <c r="AP26" s="5"/>
       <c r="AQ26" s="5"/>
       <c r="AS26" s="4">
@@ -3594,6 +3798,9 @@
       </c>
       <c r="AT26" s="5"/>
       <c r="AU26" s="5"/>
+      <c r="AV26">
+        <v>3</v>
+      </c>
       <c r="AW26" s="5"/>
       <c r="AX26" s="5"/>
       <c r="AY26" s="5"/>
@@ -3603,54 +3810,54 @@
       <c r="BC26" s="6"/>
       <c r="BD26" s="5">
         <f>BD27+BD22</f>
-        <v>61.5</v>
+        <v>56.5</v>
       </c>
       <c r="BE26" s="5"/>
       <c r="BF26" s="16">
         <v>45383</v>
       </c>
       <c r="BG26" s="7">
-        <f t="shared" ref="BG26:BQ26" si="18">SUM(BG24:BG25)</f>
+        <f t="shared" ref="BG26:BQ26" si="22">SUM(BG24:BG25)</f>
         <v>3</v>
       </c>
       <c r="BH26" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BI26" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BJ26" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BK26" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BL26" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BM26" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BN26" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BO26" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BP26" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BQ26" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BR26" s="10">
@@ -3670,7 +3877,7 @@
       <c r="CD26" s="5"/>
       <c r="CE26" s="5"/>
     </row>
-    <row r="27" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:84" x14ac:dyDescent="0.35">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -3700,8 +3907,9 @@
         <v>53</v>
       </c>
       <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
+      <c r="AE27" s="12">
+        <v>2</v>
+      </c>
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
@@ -3711,54 +3919,54 @@
       <c r="AL27" s="5"/>
       <c r="AM27" s="5"/>
       <c r="AN27" s="5"/>
-      <c r="AO27" s="5"/>
+      <c r="AO27" s="6"/>
       <c r="AP27" s="5"/>
       <c r="AQ27" s="5"/>
       <c r="AR27" s="16">
         <v>45383</v>
       </c>
       <c r="AS27" s="7">
-        <f t="shared" ref="AS27:BC27" si="19">SUM(AS25:AS26)</f>
+        <f t="shared" ref="AS27:BC27" si="23">SUM(AS25:AS26)</f>
         <v>3</v>
       </c>
       <c r="AT27" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AU27" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AV27" s="8">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="AW27" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AX27" s="8">
         <f>SUM(AX25:AX26)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AY27" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AZ27" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BA27" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BB27" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BC27" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BD27" s="10">
@@ -3799,7 +4007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:84" x14ac:dyDescent="0.35">
       <c r="B28" s="16">
         <v>45372</v>
       </c>
@@ -3826,47 +4034,47 @@
         <v>45383</v>
       </c>
       <c r="Q28" s="13">
-        <f t="shared" ref="Q28:AA28" si="20">SUM(Q25:Q27)</f>
+        <f t="shared" ref="Q28:AA28" si="24">SUM(Q25:Q27)</f>
         <v>6</v>
       </c>
       <c r="R28" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S28" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T28" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="U28" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V28" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W28" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X28" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Y28" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Z28" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="AA28" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AB28" s="10">
@@ -3874,8 +4082,9 @@
         <v>10</v>
       </c>
       <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="10"/>
+      <c r="AE28" s="12">
+        <v>2</v>
+      </c>
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
@@ -3885,8 +4094,11 @@
       <c r="AL28" s="5"/>
       <c r="AM28" s="5"/>
       <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="5">
+        <f>AP29+AP23</f>
+        <v>43</v>
+      </c>
       <c r="AQ28" s="5"/>
       <c r="AS28" s="10"/>
       <c r="AT28" s="5"/>
@@ -3940,7 +4152,7 @@
       <c r="CD28" s="5"/>
       <c r="CE28" s="6"/>
     </row>
-    <row r="29" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:84" x14ac:dyDescent="0.35">
       <c r="C29" s="12">
         <v>2</v>
       </c>
@@ -3969,19 +4181,57 @@
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
+      <c r="AD29" s="16">
+        <v>45383</v>
+      </c>
+      <c r="AE29" s="13">
+        <f t="shared" ref="AE29:AO29" si="25">SUM(AE26:AE28)</f>
+        <v>5</v>
+      </c>
+      <c r="AF29" s="8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AL29" s="8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AM29" s="8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AN29" s="8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AO29" s="9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AP29" s="10">
+        <f>SUM(AE29:AO29)</f>
+        <v>5</v>
+      </c>
       <c r="AQ29" s="5"/>
       <c r="AR29" s="16">
         <v>45384</v>
@@ -3993,7 +4243,9 @@
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
-      <c r="AX29" s="2"/>
+      <c r="AX29" s="2">
+        <v>4</v>
+      </c>
       <c r="AY29" s="2"/>
       <c r="AZ29" s="2"/>
       <c r="BA29" s="2">
@@ -4046,7 +4298,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:84" x14ac:dyDescent="0.35">
       <c r="C30" s="12">
         <v>2</v>
       </c>
@@ -4092,7 +4344,6 @@
       </c>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
       <c r="AE30" s="10"/>
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
@@ -4144,47 +4395,47 @@
         <v>45383</v>
       </c>
       <c r="BU30" s="13">
-        <f t="shared" ref="BU30:CE30" si="21">SUM(BU27:BU29)</f>
+        <f t="shared" ref="BU30:CE30" si="26">SUM(BU27:BU29)</f>
         <v>5</v>
       </c>
       <c r="BV30" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BW30" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BX30" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="BY30" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BZ30" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="CA30" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="CB30" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="CC30" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="CD30" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="CE30" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="CF30" s="10">
@@ -4192,52 +4443,52 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:84" x14ac:dyDescent="0.35">
       <c r="B31" s="16">
         <v>45383</v>
       </c>
       <c r="C31" s="13">
-        <f t="shared" ref="C31:M31" si="22">SUM(C28:C30)</f>
+        <f t="shared" ref="C31:M31" si="27">SUM(C28:C30)</f>
         <v>5</v>
       </c>
       <c r="D31" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="E31" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F31" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>1.5</v>
       </c>
       <c r="G31" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H31" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I31" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J31" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="K31" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L31" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
       <c r="M31" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N31" s="10">
@@ -4265,18 +4516,26 @@
       </c>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="10"/>
-      <c r="AF31" s="10"/>
-      <c r="AG31" s="10"/>
-      <c r="AH31" s="10"/>
-      <c r="AI31" s="10"/>
-      <c r="AJ31" s="10"/>
-      <c r="AK31" s="10"/>
-      <c r="AL31" s="10"/>
-      <c r="AM31" s="10"/>
-      <c r="AN31" s="10"/>
-      <c r="AO31" s="10"/>
+      <c r="AD31" s="16">
+        <v>45384</v>
+      </c>
+      <c r="AE31" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
+      <c r="AJ31" s="17">
+        <v>2</v>
+      </c>
+      <c r="AK31" s="17"/>
+      <c r="AL31" s="17"/>
+      <c r="AM31" s="17"/>
+      <c r="AN31" s="17"/>
+      <c r="AO31" s="18">
+        <v>3</v>
+      </c>
       <c r="AP31" s="5"/>
       <c r="AQ31" s="5"/>
       <c r="AS31" s="12"/>
@@ -4294,7 +4553,7 @@
       <c r="BC31" s="19"/>
       <c r="BD31" s="5">
         <f>BD32+BD26</f>
-        <v>81.5</v>
+        <v>80.5</v>
       </c>
       <c r="BE31" s="5"/>
       <c r="BG31" s="12">
@@ -4324,7 +4583,7 @@
       <c r="CD31" s="10"/>
       <c r="CE31" s="10"/>
     </row>
-    <row r="32" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:84" x14ac:dyDescent="0.35">
       <c r="C32" s="10"/>
       <c r="Q32" s="12">
         <v>2</v>
@@ -4347,70 +4606,73 @@
       </c>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="10"/>
+      <c r="AE32" s="12">
+        <v>2</v>
+      </c>
       <c r="AF32" s="5"/>
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
+      <c r="AJ32" s="5">
+        <v>3</v>
+      </c>
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
       <c r="AM32" s="5"/>
       <c r="AN32" s="5"/>
-      <c r="AO32" s="5"/>
+      <c r="AO32" s="6"/>
       <c r="AP32" s="5"/>
       <c r="AQ32" s="5"/>
       <c r="AR32" s="16">
         <v>45414</v>
       </c>
       <c r="AS32" s="13">
-        <f t="shared" ref="AS32:BC32" si="23">SUM(AS29:AS31)</f>
+        <f t="shared" ref="AS32:BC32" si="28">SUM(AS29:AS31)</f>
         <v>4</v>
       </c>
       <c r="AT32" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AU32" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AV32" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AW32" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AX32" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>4</v>
       </c>
       <c r="AY32" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AZ32" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="BA32" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="BB32" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="BC32" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="BD32" s="10">
         <f>SUM(AS32:BC32)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BE32" s="5"/>
       <c r="BG32" s="12">
@@ -4458,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:84" x14ac:dyDescent="0.35">
       <c r="B33" s="16">
         <v>45384</v>
       </c>
@@ -4496,18 +4758,21 @@
       <c r="AA33" s="6"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
+      <c r="AE33" s="12">
+        <v>2</v>
+      </c>
       <c r="AF33" s="5"/>
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
+      <c r="AJ33" s="5">
+        <v>3</v>
+      </c>
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
       <c r="AM33" s="5"/>
       <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
+      <c r="AO33" s="6"/>
       <c r="AP33" s="5"/>
       <c r="AQ33" s="5"/>
       <c r="AS33" s="5"/>
@@ -4527,47 +4792,47 @@
         <v>45414</v>
       </c>
       <c r="BG33" s="7">
-        <f t="shared" ref="BG33:BQ33" si="24">SUM(BG28:BG32)</f>
+        <f t="shared" ref="BG33:BQ33" si="29">SUM(BG28:BG32)</f>
         <v>10</v>
       </c>
       <c r="BH33" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BI33" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BJ33" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BK33" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BL33" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="BM33" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="BN33" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BO33" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BP33" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BQ33" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="BR33" s="10">
@@ -4595,7 +4860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:84" x14ac:dyDescent="0.35">
       <c r="C34" s="4">
         <v>2</v>
       </c>
@@ -4628,18 +4893,21 @@
       <c r="AA34" s="6"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
+      <c r="AE34" s="12">
+        <v>2</v>
+      </c>
       <c r="AF34" s="5"/>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
+      <c r="AJ34" s="10">
+        <v>2</v>
+      </c>
       <c r="AK34" s="5"/>
       <c r="AL34" s="5"/>
       <c r="AM34" s="5"/>
       <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
+      <c r="AO34" s="6"/>
       <c r="AP34" s="5"/>
       <c r="AQ34" s="5"/>
       <c r="AR34" s="16">
@@ -4695,7 +4963,7 @@
       <c r="CD34" s="5"/>
       <c r="CE34" s="6"/>
     </row>
-    <row r="35" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:84" x14ac:dyDescent="0.35">
       <c r="C35" s="4">
         <v>2</v>
       </c>
@@ -4727,19 +4995,23 @@
         <v>89</v>
       </c>
       <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
+      <c r="AE35" s="4"/>
       <c r="AF35" s="5"/>
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
+      <c r="AJ35" s="10">
+        <v>7</v>
+      </c>
       <c r="AK35" s="5"/>
       <c r="AL35" s="5"/>
       <c r="AM35" s="5"/>
       <c r="AN35" s="5"/>
-      <c r="AO35" s="5"/>
-      <c r="AP35" s="5"/>
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="5">
+        <f>AP36+AP28</f>
+        <v>71</v>
+      </c>
       <c r="AQ35" s="5"/>
       <c r="AS35" s="4">
         <v>2</v>
@@ -4800,7 +5072,7 @@
       <c r="CD35" s="5"/>
       <c r="CE35" s="6"/>
     </row>
-    <row r="36" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:84" x14ac:dyDescent="0.35">
       <c r="C36" s="4">
         <v>2</v>
       </c>
@@ -4822,47 +5094,47 @@
         <v>45414</v>
       </c>
       <c r="Q36" s="7">
-        <f t="shared" ref="Q36:AA36" si="25">SUM(Q30:Q35)</f>
+        <f t="shared" ref="Q36:AA36" si="30">SUM(Q30:Q35)</f>
         <v>12</v>
       </c>
       <c r="R36" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S36" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="T36" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="U36" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V36" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="W36" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="X36" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="Y36" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z36" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA36" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="AB36" s="10">
@@ -4870,19 +5142,57 @@
         <v>36</v>
       </c>
       <c r="AC36" s="5"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="5"/>
-      <c r="AG36" s="5"/>
-      <c r="AH36" s="5"/>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
-      <c r="AM36" s="5"/>
-      <c r="AN36" s="5"/>
-      <c r="AO36" s="5"/>
-      <c r="AP36" s="5"/>
+      <c r="AD36" s="16">
+        <v>45414</v>
+      </c>
+      <c r="AE36" s="7">
+        <f t="shared" ref="AE36:AO36" si="31">SUM(AE31:AE35)</f>
+        <v>8</v>
+      </c>
+      <c r="AF36" s="8">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="8">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="8">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AI36" s="8">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="8">
+        <f t="shared" si="31"/>
+        <v>17</v>
+      </c>
+      <c r="AK36" s="8">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AL36" s="8">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AM36" s="8">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AN36" s="8">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AO36" s="9">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="AP36" s="10">
+        <f>SUM(AE36:AO36)</f>
+        <v>28</v>
+      </c>
       <c r="AQ36" s="5"/>
       <c r="AS36" s="4">
         <v>2</v>
@@ -4932,52 +5242,52 @@
       <c r="CD36" s="5"/>
       <c r="CE36" s="6"/>
     </row>
-    <row r="37" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:84" x14ac:dyDescent="0.35">
       <c r="B37" s="16">
         <v>45414</v>
       </c>
       <c r="C37" s="7">
-        <f t="shared" ref="C37:M37" si="26">SUM(C33:C36)</f>
+        <f t="shared" ref="C37:M37" si="32">SUM(C33:C36)</f>
         <v>8</v>
       </c>
       <c r="D37" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H37" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I37" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J37" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K37" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M37" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="N37" s="10">
@@ -4997,7 +5307,6 @@
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
       <c r="AG37" s="5"/>
@@ -5018,7 +5327,7 @@
       <c r="AW37" s="5"/>
       <c r="AX37" s="5"/>
       <c r="AY37" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ37" s="5"/>
       <c r="BA37" s="5"/>
@@ -5026,7 +5335,7 @@
       <c r="BC37" s="6"/>
       <c r="BD37" s="5">
         <f>BD38+BD31</f>
-        <v>106.5</v>
+        <v>104.5</v>
       </c>
       <c r="BE37" s="5"/>
       <c r="BG37" s="12">
@@ -5065,7 +5374,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:84" x14ac:dyDescent="0.35">
       <c r="P38" s="16">
         <v>45415</v>
       </c>
@@ -5094,117 +5403,125 @@
       <c r="AA38" s="3"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="5"/>
-      <c r="AN38" s="5"/>
-      <c r="AO38" s="5"/>
+      <c r="AD38" s="16">
+        <v>45415</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>3</v>
+      </c>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="17">
+        <v>2</v>
+      </c>
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="2"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38" s="3"/>
       <c r="AP38" s="5"/>
       <c r="AQ38" s="5"/>
       <c r="AR38" s="16">
         <v>45428</v>
       </c>
       <c r="AS38" s="7">
-        <f t="shared" ref="AS38:BC38" si="27">SUM(AS34:AS37)</f>
+        <f t="shared" ref="AS38:BC38" si="33">SUM(AS34:AS37)</f>
         <v>6</v>
       </c>
       <c r="AT38" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AU38" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AV38" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AW38" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AX38" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AY38" s="8">
-        <f t="shared" si="27"/>
-        <v>16</v>
+        <f t="shared" si="33"/>
+        <v>15</v>
       </c>
       <c r="AZ38" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BA38" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="BB38" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BC38" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BD38" s="10">
         <f>SUM(AS38:BC38)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BE38" s="5"/>
       <c r="BF38" s="16">
         <v>45428</v>
       </c>
       <c r="BG38" s="7">
-        <f t="shared" ref="BG38:BQ38" si="28">SUM(BG35:BG37)</f>
+        <f t="shared" ref="BG38:BQ38" si="34">SUM(BG35:BG37)</f>
         <v>5</v>
       </c>
       <c r="BH38" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="BI38" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BJ38" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="BK38" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="BL38" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>7</v>
       </c>
       <c r="BM38" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="BN38" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BO38" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BP38" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BQ38" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BR38" s="10">
@@ -5220,43 +5537,43 @@
         <v>12</v>
       </c>
       <c r="BV38" s="8">
-        <f>SUM(BV32:BV35)</f>
+        <f t="shared" ref="BV38:CE38" si="35">SUM(BV32:BV35)</f>
         <v>1</v>
       </c>
       <c r="BW38" s="8">
-        <f>SUM(BW32:BW35)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BX38" s="8">
-        <f>SUM(BX32:BX35)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BY38" s="8">
-        <f>SUM(BY32:BY35)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BZ38" s="8">
-        <f>SUM(BZ32:BZ35)</f>
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
       <c r="CA38" s="8">
-        <f>SUM(CA32:CA35)</f>
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
       <c r="CB38" s="8">
-        <f>SUM(CB32:CB35)</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="CC38" s="8">
-        <f>SUM(CC32:CC35)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="CD38" s="8">
-        <f>SUM(CD32:CD35)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="CE38" s="9">
-        <f>SUM(CE32:CE35)</f>
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
       <c r="CF38" s="10">
@@ -5264,7 +5581,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:84" x14ac:dyDescent="0.35">
       <c r="B39" s="16">
         <v>45415</v>
       </c>
@@ -5300,18 +5617,23 @@
       <c r="AA39" s="6"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
+      <c r="AE39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF39" s="5">
+        <v>3</v>
+      </c>
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
+      <c r="AJ39" s="10">
+        <v>5</v>
+      </c>
       <c r="AK39" s="5"/>
       <c r="AL39" s="5"/>
       <c r="AM39" s="5"/>
       <c r="AN39" s="5"/>
-      <c r="AO39" s="5"/>
+      <c r="AO39" s="6"/>
       <c r="AP39" s="5"/>
       <c r="AQ39" s="5"/>
       <c r="AS39" s="5"/>
@@ -5352,7 +5674,7 @@
       <c r="CD39" s="5"/>
       <c r="CE39" s="5"/>
     </row>
-    <row r="40" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:84" x14ac:dyDescent="0.35">
       <c r="C40" s="4">
         <v>2</v>
       </c>
@@ -5385,34 +5707,41 @@
       <c r="AA40" s="6"/>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
+      <c r="AE40" s="4"/>
       <c r="AF40" s="5"/>
       <c r="AG40" s="5"/>
       <c r="AH40" s="5"/>
       <c r="AI40" s="5"/>
-      <c r="AJ40" s="5"/>
+      <c r="AJ40" s="10">
+        <v>1</v>
+      </c>
       <c r="AK40" s="5"/>
       <c r="AL40" s="5"/>
       <c r="AM40" s="5"/>
       <c r="AN40" s="5"/>
-      <c r="AO40" s="5"/>
+      <c r="AO40" s="6"/>
       <c r="AP40" s="5"/>
       <c r="AQ40" s="5"/>
       <c r="AR40" s="16">
         <v>45429</v>
       </c>
-      <c r="AS40" s="2"/>
+      <c r="AS40" s="1"/>
       <c r="AT40" s="2"/>
       <c r="AU40" s="2"/>
       <c r="AV40" s="2"/>
-      <c r="AW40" s="2"/>
-      <c r="AX40" s="2"/>
-      <c r="AY40" s="2"/>
+      <c r="AW40" s="2">
+        <v>2</v>
+      </c>
+      <c r="AX40" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY40" s="2">
+        <v>2</v>
+      </c>
       <c r="AZ40" s="2"/>
       <c r="BA40" s="2"/>
       <c r="BB40" s="2"/>
-      <c r="BC40" s="2"/>
+      <c r="BC40" s="3"/>
       <c r="BD40" s="5"/>
       <c r="BE40" s="5"/>
       <c r="BF40" s="16">
@@ -5454,7 +5783,7 @@
       <c r="CD40" s="2"/>
       <c r="CE40" s="3"/>
     </row>
-    <row r="41" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:84" x14ac:dyDescent="0.35">
       <c r="C41" s="4">
         <v>3</v>
       </c>
@@ -5490,31 +5819,34 @@
         <v>109</v>
       </c>
       <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
+      <c r="AE41" s="4"/>
       <c r="AF41" s="5"/>
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
+      <c r="AJ41" s="10">
+        <v>3</v>
+      </c>
       <c r="AK41" s="5"/>
       <c r="AL41" s="5"/>
       <c r="AM41" s="5"/>
       <c r="AN41" s="5"/>
-      <c r="AO41" s="5"/>
+      <c r="AO41" s="6"/>
       <c r="AP41" s="5"/>
       <c r="AQ41" s="5"/>
-      <c r="AS41" s="5"/>
+      <c r="AS41" s="4"/>
       <c r="AT41" s="5"/>
       <c r="AU41" s="5"/>
       <c r="AV41" s="5"/>
       <c r="AW41" s="5"/>
       <c r="AX41" s="5"/>
-      <c r="AY41" s="5"/>
+      <c r="AY41" s="10">
+        <v>3</v>
+      </c>
       <c r="AZ41" s="5"/>
       <c r="BA41" s="5"/>
       <c r="BB41" s="5"/>
-      <c r="BC41" s="5"/>
+      <c r="BC41" s="6"/>
       <c r="BD41" s="5"/>
       <c r="BE41" s="5"/>
       <c r="BG41" s="5"/>
@@ -5548,7 +5880,7 @@
       <c r="CD41" s="5"/>
       <c r="CE41" s="6"/>
     </row>
-    <row r="42" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:84" x14ac:dyDescent="0.35">
       <c r="C42" s="4">
         <v>2</v>
       </c>
@@ -5570,47 +5902,47 @@
         <v>45428</v>
       </c>
       <c r="Q42" s="7">
-        <f t="shared" ref="Q42:AA42" si="29">SUM(Q38:Q41)</f>
+        <f t="shared" ref="Q42:AA42" si="36">SUM(Q38:Q41)</f>
         <v>9</v>
       </c>
       <c r="R42" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="S42" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T42" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="U42" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="V42" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="W42" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X42" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="Y42" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z42" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AA42" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AB42" s="10">
@@ -5618,31 +5950,37 @@
         <v>20</v>
       </c>
       <c r="AC42" s="5"/>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
+      <c r="AE42" s="4"/>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5"/>
       <c r="AH42" s="5"/>
       <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
+      <c r="AJ42" s="10">
+        <v>1</v>
+      </c>
       <c r="AK42" s="5"/>
       <c r="AL42" s="5"/>
       <c r="AM42" s="5"/>
       <c r="AN42" s="5"/>
-      <c r="AO42" s="5"/>
-      <c r="AP42" s="5"/>
+      <c r="AO42" s="6"/>
+      <c r="AP42" s="5">
+        <f>AP43+AP35</f>
+        <v>93</v>
+      </c>
       <c r="AQ42" s="5"/>
-      <c r="AS42" s="5"/>
+      <c r="AS42" s="4"/>
       <c r="AT42" s="5"/>
       <c r="AU42" s="5"/>
       <c r="AV42" s="5"/>
       <c r="AW42" s="5"/>
       <c r="AX42" s="5"/>
-      <c r="AY42" s="5"/>
+      <c r="AY42" s="10">
+        <v>5</v>
+      </c>
       <c r="AZ42" s="5"/>
       <c r="BA42" s="5"/>
       <c r="BB42" s="5"/>
-      <c r="BC42" s="5"/>
+      <c r="BC42" s="6"/>
       <c r="BD42" s="5"/>
       <c r="BE42" s="5"/>
       <c r="BG42" s="5"/>
@@ -5674,52 +6012,52 @@
       <c r="CD42" s="5"/>
       <c r="CE42" s="6"/>
     </row>
-    <row r="43" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:84" x14ac:dyDescent="0.35">
       <c r="B43" s="16">
         <v>45428</v>
       </c>
       <c r="C43" s="7">
-        <f t="shared" ref="C43:M43" si="30">SUM(C39:C42)</f>
+        <f t="shared" ref="C43:M43" si="37">SUM(C39:C42)</f>
         <v>9</v>
       </c>
       <c r="D43" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="E43" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="F43" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>11</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J43" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K43" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M43" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N43" s="10">
@@ -5739,21 +6077,59 @@
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5"/>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
-      <c r="AM43" s="5"/>
-      <c r="AN43" s="5"/>
-      <c r="AO43" s="5"/>
-      <c r="AP43" s="5"/>
+      <c r="AD43" s="16">
+        <v>45428</v>
+      </c>
+      <c r="AE43" s="7">
+        <f t="shared" ref="AE43:AO43" si="38">SUM(AE38:AE42)</f>
+        <v>4</v>
+      </c>
+      <c r="AF43" s="8">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="AG43" s="8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AH43" s="8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AI43" s="8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="8">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="AK43" s="8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AL43" s="8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AM43" s="8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AN43" s="8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AO43" s="9">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AP43" s="10">
+        <f>SUM(AE43:AO43)</f>
+        <v>22</v>
+      </c>
       <c r="AQ43" s="5"/>
-      <c r="AS43" s="5"/>
+      <c r="AS43" s="4"/>
       <c r="AT43" s="5"/>
       <c r="AU43" s="5"/>
       <c r="AV43" s="5"/>
@@ -5763,7 +6139,7 @@
       <c r="AZ43" s="5"/>
       <c r="BA43" s="5"/>
       <c r="BB43" s="5"/>
-      <c r="BC43" s="5"/>
+      <c r="BC43" s="6"/>
       <c r="BD43" s="5"/>
       <c r="BE43" s="5"/>
       <c r="BG43" s="5"/>
@@ -5795,21 +6171,36 @@
       <c r="CD43" s="5"/>
       <c r="CE43" s="6"/>
     </row>
-    <row r="44" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:84" x14ac:dyDescent="0.35">
       <c r="P44" s="16">
         <v>45429</v>
       </c>
-      <c r="Q44" s="2"/>
+      <c r="Q44" s="1"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
+      <c r="U44" s="2">
+        <v>1</v>
+      </c>
+      <c r="V44" s="2">
+        <v>3</v>
+      </c>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
+      <c r="AA44" s="3"/>
+      <c r="AS44" s="4"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="5"/>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="5"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="5"/>
+      <c r="BA44" s="5"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="6"/>
       <c r="BU44" s="4"/>
       <c r="BV44" s="5"/>
       <c r="BW44" s="5"/>
@@ -5824,21 +6215,69 @@
       <c r="CD44" s="5"/>
       <c r="CE44" s="6"/>
     </row>
-    <row r="45" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:84" x14ac:dyDescent="0.35">
       <c r="B45" s="16">
         <v>45429</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="2">
+        <v>2</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+      <c r="G45" s="2">
+        <v>2</v>
+      </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="J45" s="2">
+        <v>4</v>
+      </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
+      <c r="M45" s="3"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5">
+        <v>2</v>
+      </c>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="6"/>
+      <c r="AD45" s="16">
+        <v>45429</v>
+      </c>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
+      <c r="AM45" s="2"/>
+      <c r="AN45" s="2"/>
+      <c r="AO45" s="3"/>
+      <c r="AS45" s="4"/>
+      <c r="AT45" s="5"/>
+      <c r="AU45" s="5"/>
+      <c r="AV45" s="5"/>
+      <c r="AW45" s="5"/>
+      <c r="AX45" s="5"/>
+      <c r="AY45" s="5"/>
+      <c r="AZ45" s="5"/>
+      <c r="BA45" s="5"/>
+      <c r="BB45" s="5"/>
+      <c r="BC45" s="6"/>
       <c r="BU45" s="4"/>
       <c r="BV45" s="5"/>
       <c r="BW45" s="5"/>
@@ -5853,7 +6292,55 @@
       <c r="CD45" s="5"/>
       <c r="CE45" s="6"/>
     </row>
-    <row r="46" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:84" x14ac:dyDescent="0.35">
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5">
+        <v>2</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="6"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="6"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5">
+        <v>3</v>
+      </c>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5"/>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="6"/>
+      <c r="AS46" s="4"/>
+      <c r="AT46" s="5"/>
+      <c r="AU46" s="5"/>
+      <c r="AV46" s="5"/>
+      <c r="AW46" s="5"/>
+      <c r="AX46" s="5"/>
+      <c r="AY46" s="5"/>
+      <c r="AZ46" s="5"/>
+      <c r="BA46" s="5"/>
+      <c r="BB46" s="5"/>
+      <c r="BC46" s="6"/>
       <c r="BU46" s="4"/>
       <c r="BV46" s="5"/>
       <c r="BW46" s="5"/>
@@ -5868,7 +6355,51 @@
       <c r="CD46" s="5"/>
       <c r="CE46" s="6"/>
     </row>
-    <row r="47" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:84" x14ac:dyDescent="0.35">
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="6"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="6"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5"/>
+      <c r="AM47" s="5"/>
+      <c r="AN47" s="5"/>
+      <c r="AO47" s="6"/>
+      <c r="AS47" s="4"/>
+      <c r="AT47" s="5"/>
+      <c r="AU47" s="5"/>
+      <c r="AV47" s="5"/>
+      <c r="AW47" s="5"/>
+      <c r="AX47" s="5"/>
+      <c r="AY47" s="5"/>
+      <c r="AZ47" s="5"/>
+      <c r="BA47" s="5"/>
+      <c r="BB47" s="5"/>
+      <c r="BC47" s="6"/>
       <c r="BU47" s="4"/>
       <c r="BV47" s="5"/>
       <c r="BW47" s="5"/>
@@ -5887,52 +6418,104 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:84" x14ac:dyDescent="0.35">
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="6"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="6"/>
+      <c r="AE48" s="4"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="5"/>
+      <c r="AO48" s="6"/>
+      <c r="AP48">
+        <f>AP49+AP42</f>
+        <v>98</v>
+      </c>
+      <c r="AS48" s="4"/>
+      <c r="AT48" s="5"/>
+      <c r="AU48" s="5"/>
+      <c r="AV48" s="5"/>
+      <c r="AW48" s="5"/>
+      <c r="AX48" s="5"/>
+      <c r="AY48" s="5"/>
+      <c r="AZ48" s="5"/>
+      <c r="BA48" s="5"/>
+      <c r="BB48" s="5"/>
+      <c r="BC48" s="6"/>
+      <c r="BD48">
+        <f>BD49+BD37</f>
+        <v>118.5</v>
+      </c>
       <c r="BT48" s="16">
         <v>45428</v>
       </c>
       <c r="BU48" s="7">
-        <f t="shared" ref="BU48:CE48" si="31">SUM(BU40:BU47)</f>
+        <f t="shared" ref="BU48:CE48" si="39">SUM(BU40:BU47)</f>
         <v>9</v>
       </c>
       <c r="BV48" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="BW48" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BX48" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BY48" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BZ48" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>37</v>
       </c>
       <c r="CA48" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="CB48" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="CC48" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="CD48" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="CE48" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="CF48" s="10">
@@ -5940,7 +6523,201 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="3:83" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:83" x14ac:dyDescent="0.35">
+      <c r="C49" s="7">
+        <f>SUM(C45:C48)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="8">
+        <f t="shared" ref="D49:M49" si="40">SUM(D45:D48)</f>
+        <v>2</v>
+      </c>
+      <c r="E49" s="8">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="8">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="8">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="H49" s="8">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="8">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="8">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="K49" s="8">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="8">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="9">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="10">
+        <f>SUM(C49:M49)</f>
+        <v>10</v>
+      </c>
+      <c r="Q49" s="7">
+        <f>SUM(Q44:Q48)</f>
+        <v>0</v>
+      </c>
+      <c r="R49" s="8">
+        <f t="shared" ref="R49:AA49" si="41">SUM(R44:R48)</f>
+        <v>0</v>
+      </c>
+      <c r="S49" s="8">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="8">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="8">
+        <f t="shared" si="41"/>
+        <v>3</v>
+      </c>
+      <c r="V49" s="8">
+        <f t="shared" si="41"/>
+        <v>3</v>
+      </c>
+      <c r="W49" s="8">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="8">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="8">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="8">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AA49" s="9">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AB49" s="10">
+        <f>SUM(Q49:AA49)</f>
+        <v>6</v>
+      </c>
+      <c r="AE49" s="7">
+        <f>SUM(AE45:AE48)</f>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="8">
+        <f t="shared" ref="AF49:AP49" si="42">SUM(AF45:AF48)</f>
+        <v>1</v>
+      </c>
+      <c r="AG49" s="8">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AH49" s="8">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AI49" s="8">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="8">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="AK49" s="8">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AL49" s="8">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AM49" s="8">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AN49" s="8">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AO49" s="9">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AP49" s="10">
+        <f>SUM(AE49:AO49)</f>
+        <v>5</v>
+      </c>
+      <c r="AS49" s="7">
+        <f>SUM(AS40:AS48)</f>
+        <v>0</v>
+      </c>
+      <c r="AT49" s="8">
+        <f t="shared" ref="AT49:BC49" si="43">SUM(AT40:AT48)</f>
+        <v>0</v>
+      </c>
+      <c r="AU49" s="8">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AV49" s="8">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AW49" s="8">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="AX49" s="8">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="AY49" s="8">
+        <f t="shared" si="43"/>
+        <v>10</v>
+      </c>
+      <c r="AZ49" s="8">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="BA49" s="8">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="BB49" s="8">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="BC49" s="9">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="BD49" s="10">
+        <f>SUM(AS49:BC49)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="3:83" x14ac:dyDescent="0.35">
       <c r="BT50" s="16">
         <v>45429</v>
       </c>
@@ -5956,7 +6733,7 @@
       <c r="CD50" s="2"/>
       <c r="CE50" s="2"/>
     </row>
-    <row r="64" spans="3:83" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:83" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
         <v>6</v>
       </c>
@@ -5991,54 +6768,54 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C65">
         <f>C1+Q1+AE1+AS1+BG1+BU1</f>
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="D65">
-        <f t="shared" ref="D65:M65" si="32">D1+R1+AF1+AT1+BH1+BV1</f>
-        <v>18</v>
+        <f t="shared" ref="D65:L65" si="44">D1+R1+AF1+AT1+BH1+BV1</f>
+        <v>29</v>
       </c>
       <c r="E65">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>7</v>
       </c>
       <c r="F65">
-        <f t="shared" si="32"/>
-        <v>53.5</v>
+        <f t="shared" si="44"/>
+        <v>54</v>
       </c>
       <c r="G65">
-        <f t="shared" si="32"/>
-        <v>6</v>
+        <f t="shared" si="44"/>
+        <v>13</v>
       </c>
       <c r="H65">
-        <f t="shared" si="32"/>
-        <v>90.5</v>
+        <f t="shared" si="44"/>
+        <v>127</v>
       </c>
       <c r="I65">
-        <f t="shared" si="32"/>
-        <v>34</v>
+        <f t="shared" si="44"/>
+        <v>43</v>
       </c>
       <c r="J65">
-        <f t="shared" si="32"/>
-        <v>17</v>
+        <f t="shared" si="44"/>
+        <v>23</v>
       </c>
       <c r="K65">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>15</v>
       </c>
       <c r="L65">
-        <f t="shared" si="32"/>
-        <v>37.5</v>
+        <f t="shared" si="44"/>
+        <v>47.5</v>
       </c>
       <c r="M65">
         <f>M1+AA1+AO1+BC1+BQ1+CE1</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N65">
         <f>SUM(C65:M65)</f>
-        <v>543.5</v>
+        <v>669.5</v>
       </c>
     </row>
   </sheetData>

--- a/тппо/метрики.xlsx
+++ b/тппо/метрики.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\study\тппо\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Софья Зименкова\учёба\6 сем\тппо\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1E3188-1765-4B05-AED7-EF4A826056A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DCB0A2-77F2-4674-B30C-92FFEE687E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4480" yWindow="1810" windowWidth="13690" windowHeight="7810" xr2:uid="{CCCFB933-5F72-7E43-873B-A960A3B68B39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCCFB933-5F72-7E43-873B-A960A3B68B39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="18">
   <si>
     <t>сньо</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>итоги</t>
-  </si>
-  <si>
-    <t>Присоединилась к команде позже по ходу работы над проектом. И слава богу.</t>
   </si>
 </sst>
 </file>
@@ -212,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -234,33 +231,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -578,26 +548,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29270DAB-7104-2649-B0DD-7221BAC42264}">
   <dimension ref="A1:CF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="45" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1">
         <f>SUM(C1:M1)</f>
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C1">
         <f>SUM(C11,C19,C26,C31,C37,C43,C49)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1">
         <f t="shared" ref="D1:M1" si="0">SUM(D11,D19,D26,D31,D37,D43,D49)</f>
@@ -625,7 +595,7 @@
       </c>
       <c r="J1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K1">
         <f t="shared" si="0"/>
@@ -641,11 +611,11 @@
       </c>
       <c r="P1">
         <f>SUM(Q1:AA1)</f>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q1">
         <f>SUM(Q11,Q18,Q23,Q28,Q36,Q42,Q49)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R1">
         <f t="shared" ref="R1:AA1" si="1">SUM(R11,R18,R23,R28,R36,R42,R49)</f>
@@ -689,15 +659,15 @@
       </c>
       <c r="AD1">
         <f>SUM(AE1:AO1)</f>
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AE1">
         <f>SUM(AE11,AE17,AE24,AE29,AE36,AE43,AE49)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AF1">
         <f t="shared" ref="AF1:AO1" si="2">SUM(AF11,AF17,AF24,AF29,AF36,AF43,AF49)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG1">
         <f t="shared" si="2"/>
@@ -737,11 +707,11 @@
       </c>
       <c r="AR1">
         <f>SUM(AS1:BC1)</f>
-        <v>118.5</v>
+        <v>122.5</v>
       </c>
       <c r="AS1">
         <f>SUM(AS11,AS17,AS23,AS27,AS32,AS38,AS49)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AT1">
         <f t="shared" ref="AT1:BC1" si="3">SUM(AT11,AT17,AT23,AT27,AT32,AT38,AT49)</f>
@@ -761,7 +731,7 @@
       </c>
       <c r="AX1">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY1">
         <f t="shared" si="3"/>
@@ -785,14 +755,14 @@
       </c>
       <c r="BF1" s="20">
         <f>SUM(BG1:BQ1)</f>
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="BG1">
-        <f>SUM(BG10,BG15,BG22,BG26,BG33,BG38)</f>
-        <v>39</v>
+        <f>SUM(BG10,BG15,BG22,BG26,BG33,BG38,BG49)</f>
+        <v>41</v>
       </c>
       <c r="BH1">
-        <f t="shared" ref="BH1:BQ1" si="4">SUM(BH10,BH15,BH22,BH26,BH33,BH38)</f>
+        <f t="shared" ref="BH1:BQ1" si="4">SUM(BH10,BH15,BH22,BH26,BH33,BH38,BH49)</f>
         <v>3</v>
       </c>
       <c r="BI1">
@@ -809,11 +779,11 @@
       </c>
       <c r="BL1">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BM1">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BN1">
         <f t="shared" si="4"/>
@@ -833,15 +803,15 @@
       </c>
       <c r="BT1">
         <f>SUM(BU1:CE1)</f>
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="BU1">
-        <f t="shared" ref="BU1:CE1" si="5">SUM(BU19,BU25,BU30,BU38,BU48)</f>
-        <v>43</v>
+        <f>SUM(BU11,BU17,BU22,BU30,BU40,BU49)</f>
+        <v>45</v>
       </c>
       <c r="BV1">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f t="shared" ref="BV1:CE1" si="5">SUM(BV11,BV17,BV22,BV30,BV40,BV49)</f>
+        <v>10</v>
       </c>
       <c r="BW1">
         <f t="shared" si="5"/>
@@ -857,7 +827,7 @@
       </c>
       <c r="BZ1">
         <f t="shared" si="5"/>
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="CA1">
         <f t="shared" si="5"/>
@@ -880,7 +850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>45330</v>
       </c>
@@ -1208,23 +1178,27 @@
       <c r="BR5" s="5"/>
       <c r="BS5" s="5"/>
       <c r="BT5" s="16">
-        <v>45330</v>
-      </c>
-      <c r="BU5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="BV5" s="22"/>
-      <c r="BW5" s="22"/>
-      <c r="BX5" s="22"/>
-      <c r="BY5" s="22"/>
-      <c r="BZ5" s="22"/>
-      <c r="CA5" s="22"/>
-      <c r="CB5" s="22"/>
-      <c r="CC5" s="22"/>
-      <c r="CD5" s="22"/>
-      <c r="CE5" s="23"/>
+        <v>45344</v>
+      </c>
+      <c r="BU5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BV5" s="2"/>
+      <c r="BW5" s="2"/>
+      <c r="BX5" s="2">
+        <v>3</v>
+      </c>
+      <c r="BY5" s="2"/>
+      <c r="BZ5" s="2"/>
+      <c r="CA5" s="2"/>
+      <c r="CB5" s="2"/>
+      <c r="CC5" s="2"/>
+      <c r="CD5" s="2">
+        <v>1</v>
+      </c>
+      <c r="CE5" s="3"/>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
       <c r="C6" s="4">
         <v>2</v>
       </c>
@@ -1308,19 +1282,23 @@
       <c r="BQ6" s="6"/>
       <c r="BR6" s="5"/>
       <c r="BS6" s="5"/>
-      <c r="BU6" s="24"/>
-      <c r="BV6" s="25"/>
-      <c r="BW6" s="25"/>
-      <c r="BX6" s="25"/>
-      <c r="BY6" s="25"/>
-      <c r="BZ6" s="25"/>
-      <c r="CA6" s="25"/>
-      <c r="CB6" s="25"/>
-      <c r="CC6" s="25"/>
-      <c r="CD6" s="25"/>
-      <c r="CE6" s="26"/>
+      <c r="BU6" s="4">
+        <v>2</v>
+      </c>
+      <c r="BV6" s="5"/>
+      <c r="BW6" s="5"/>
+      <c r="BX6" s="5">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="5"/>
+      <c r="BZ6" s="5"/>
+      <c r="CA6" s="5"/>
+      <c r="CB6" s="5"/>
+      <c r="CC6" s="5"/>
+      <c r="CD6" s="5"/>
+      <c r="CE6" s="6"/>
     </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
         <v>2</v>
       </c>
@@ -1394,19 +1372,23 @@
       <c r="BQ7" s="6"/>
       <c r="BR7" s="5"/>
       <c r="BS7" s="5"/>
-      <c r="BU7" s="24"/>
-      <c r="BV7" s="25"/>
-      <c r="BW7" s="25"/>
-      <c r="BX7" s="25"/>
-      <c r="BY7" s="25"/>
-      <c r="BZ7" s="25"/>
-      <c r="CA7" s="25"/>
-      <c r="CB7" s="25"/>
-      <c r="CC7" s="25"/>
-      <c r="CD7" s="25"/>
-      <c r="CE7" s="26"/>
+      <c r="BU7" s="4">
+        <v>1</v>
+      </c>
+      <c r="BV7" s="5"/>
+      <c r="BW7" s="5"/>
+      <c r="BX7" s="5">
+        <v>2</v>
+      </c>
+      <c r="BY7" s="5"/>
+      <c r="BZ7" s="5"/>
+      <c r="CA7" s="5"/>
+      <c r="CB7" s="5"/>
+      <c r="CC7" s="5"/>
+      <c r="CD7" s="5"/>
+      <c r="CE7" s="6"/>
     </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
       <c r="C8" s="4">
         <v>2</v>
       </c>
@@ -1480,19 +1462,21 @@
       <c r="BQ8" s="6"/>
       <c r="BR8" s="5"/>
       <c r="BS8" s="5"/>
-      <c r="BU8" s="24"/>
-      <c r="BV8" s="25"/>
-      <c r="BW8" s="25"/>
-      <c r="BX8" s="25"/>
-      <c r="BY8" s="25"/>
-      <c r="BZ8" s="25"/>
-      <c r="CA8" s="25"/>
-      <c r="CB8" s="25"/>
-      <c r="CC8" s="25"/>
-      <c r="CD8" s="25"/>
-      <c r="CE8" s="26"/>
+      <c r="BU8" s="12">
+        <v>2</v>
+      </c>
+      <c r="BV8" s="5"/>
+      <c r="BW8" s="5"/>
+      <c r="BX8" s="5"/>
+      <c r="BY8" s="5"/>
+      <c r="BZ8" s="5"/>
+      <c r="CA8" s="5"/>
+      <c r="CB8" s="5"/>
+      <c r="CC8" s="5"/>
+      <c r="CD8" s="5"/>
+      <c r="CE8" s="6"/>
     </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
       <c r="C9" s="4">
         <v>2</v>
       </c>
@@ -1566,19 +1550,21 @@
       <c r="BQ9" s="6"/>
       <c r="BR9" s="5"/>
       <c r="BS9" s="5"/>
-      <c r="BU9" s="24"/>
-      <c r="BV9" s="25"/>
-      <c r="BW9" s="25"/>
-      <c r="BX9" s="25"/>
-      <c r="BY9" s="25"/>
-      <c r="BZ9" s="25"/>
-      <c r="CA9" s="25"/>
-      <c r="CB9" s="25"/>
-      <c r="CC9" s="25"/>
-      <c r="CD9" s="25"/>
-      <c r="CE9" s="26"/>
+      <c r="BU9" s="12">
+        <v>1</v>
+      </c>
+      <c r="BV9" s="5"/>
+      <c r="BW9" s="5"/>
+      <c r="BX9" s="5"/>
+      <c r="BY9" s="5"/>
+      <c r="BZ9" s="5"/>
+      <c r="CA9" s="5"/>
+      <c r="CB9" s="5"/>
+      <c r="CC9" s="5"/>
+      <c r="CD9" s="5"/>
+      <c r="CE9" s="6"/>
     </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
       <c r="C10" s="4">
         <v>1</v>
       </c>
@@ -1689,19 +1675,21 @@
         <v>16</v>
       </c>
       <c r="BS10" s="5"/>
-      <c r="BU10" s="24"/>
-      <c r="BV10" s="25"/>
-      <c r="BW10" s="25"/>
-      <c r="BX10" s="25"/>
-      <c r="BY10" s="25"/>
-      <c r="BZ10" s="25"/>
-      <c r="CA10" s="25"/>
-      <c r="CB10" s="25"/>
-      <c r="CC10" s="25"/>
-      <c r="CD10" s="25"/>
-      <c r="CE10" s="26"/>
+      <c r="BU10" s="12">
+        <v>2</v>
+      </c>
+      <c r="BV10" s="5"/>
+      <c r="BW10" s="5"/>
+      <c r="BX10" s="5"/>
+      <c r="BY10" s="5"/>
+      <c r="BZ10" s="5"/>
+      <c r="CA10" s="5"/>
+      <c r="CB10" s="5"/>
+      <c r="CC10" s="5"/>
+      <c r="CD10" s="5"/>
+      <c r="CE10" s="6"/>
     </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>45343</v>
       </c>
@@ -1809,47 +1797,47 @@
         <v>45343</v>
       </c>
       <c r="AE11" s="7">
-        <f>SUM(AE5:AE10)</f>
+        <f t="shared" ref="AE11:AO11" si="9">SUM(AE5:AE10)</f>
         <v>11</v>
       </c>
       <c r="AF11" s="8">
-        <f>SUM(AF5:AF10)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG11" s="8">
-        <f>SUM(AG5:AG10)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH11" s="8">
-        <f>SUM(AH5:AH10)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI11" s="8">
-        <f>SUM(AI5:AI10)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ11" s="8">
-        <f>SUM(AJ5:AJ10)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK11" s="8">
-        <f>SUM(AK5:AK10)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL11" s="8">
-        <f>SUM(AL5:AL10)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM11" s="8">
-        <f>SUM(AM5:AM10)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AN11" s="8">
-        <f>SUM(AN5:AN10)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AO11" s="9">
-        <f>SUM(AO5:AO10)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP11" s="10">
@@ -1861,47 +1849,47 @@
         <v>45343</v>
       </c>
       <c r="AS11" s="7">
-        <f t="shared" ref="AS11:BC11" si="9">SUM(AS5:AS10)</f>
+        <f t="shared" ref="AS11:BC11" si="10">SUM(AS5:AS10)</f>
         <v>10</v>
       </c>
       <c r="AT11" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AU11" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AV11" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AW11" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AX11" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AY11" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AZ11" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BA11" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BB11" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="BC11" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="BD11" s="10">
@@ -1923,21 +1911,58 @@
       <c r="BR11" s="5"/>
       <c r="BS11" s="5"/>
       <c r="BT11" s="16">
-        <v>45343</v>
-      </c>
-      <c r="BU11" s="27"/>
-      <c r="BV11" s="28"/>
-      <c r="BW11" s="28"/>
-      <c r="BX11" s="28"/>
-      <c r="BY11" s="28"/>
-      <c r="BZ11" s="28"/>
-      <c r="CA11" s="28"/>
-      <c r="CB11" s="28"/>
-      <c r="CC11" s="28"/>
-      <c r="CD11" s="28"/>
-      <c r="CE11" s="29"/>
+        <v>45357</v>
+      </c>
+      <c r="BU11" s="7">
+        <f t="shared" ref="BU11:CE11" si="11">SUM(BU5:BU10)</f>
+        <v>10</v>
+      </c>
+      <c r="BV11" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BW11" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BX11" s="8">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="BY11" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="CA11" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="CB11" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="CC11" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="CD11" s="8">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="CE11" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <f>SUM(BU11:CE11)</f>
+        <v>17</v>
+      </c>
     </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -1998,7 +2023,6 @@
       </c>
       <c r="BQ12" s="3"/>
       <c r="BS12" s="5"/>
-      <c r="BT12" s="5"/>
       <c r="BU12" s="5"/>
       <c r="BV12" s="5"/>
       <c r="BW12" s="5"/>
@@ -2011,7 +2035,7 @@
       <c r="CD12" s="5"/>
       <c r="CE12" s="5"/>
     </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B13" s="16">
         <v>45344</v>
       </c>
@@ -2122,15 +2146,15 @@
       <c r="BR13" s="5"/>
       <c r="BS13" s="5"/>
       <c r="BT13" s="16">
-        <v>45344</v>
-      </c>
-      <c r="BU13" s="1">
+        <v>45358</v>
+      </c>
+      <c r="BU13" s="11">
         <v>2</v>
       </c>
       <c r="BV13" s="2"/>
       <c r="BW13" s="2"/>
       <c r="BX13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BY13" s="2"/>
       <c r="BZ13" s="2"/>
@@ -2138,11 +2162,11 @@
       <c r="CB13" s="2"/>
       <c r="CC13" s="2"/>
       <c r="CD13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CE13" s="3"/>
     </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
       <c r="C14" s="4">
         <v>2</v>
       </c>
@@ -2231,13 +2255,13 @@
         <v>25</v>
       </c>
       <c r="BS14" s="5"/>
-      <c r="BU14" s="4">
+      <c r="BU14" s="12">
         <v>2</v>
       </c>
       <c r="BV14" s="5"/>
       <c r="BW14" s="5"/>
       <c r="BX14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BY14" s="5"/>
       <c r="BZ14" s="5"/>
@@ -2247,7 +2271,7 @@
       <c r="CD14" s="5"/>
       <c r="CE14" s="6"/>
     </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
       <c r="C15" s="4">
         <v>1</v>
       </c>
@@ -2314,47 +2338,47 @@
         <v>45357</v>
       </c>
       <c r="BG15" s="7">
-        <f t="shared" ref="BG15:BQ15" si="10">SUM(BG12:BG14)</f>
+        <f t="shared" ref="BG15:BQ15" si="12">SUM(BG12:BG14)</f>
         <v>5</v>
       </c>
       <c r="BH15" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BI15" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BJ15" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="BK15" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BL15" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BM15" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN15" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BO15" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BP15" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="BQ15" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BR15" s="10">
@@ -2362,7 +2386,7 @@
         <v>9</v>
       </c>
       <c r="BS15" s="5"/>
-      <c r="BU15" s="4">
+      <c r="BU15" s="12">
         <v>1</v>
       </c>
       <c r="BV15" s="5"/>
@@ -2378,7 +2402,7 @@
       <c r="CD15" s="5"/>
       <c r="CE15" s="6"/>
     </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
       <c r="C16" s="4">
         <v>2</v>
       </c>
@@ -2460,7 +2484,9 @@
       </c>
       <c r="BV16" s="5"/>
       <c r="BW16" s="5"/>
-      <c r="BX16" s="5"/>
+      <c r="BX16" s="10">
+        <v>2</v>
+      </c>
       <c r="BY16" s="5"/>
       <c r="BZ16" s="5"/>
       <c r="CA16" s="5"/>
@@ -2468,8 +2494,12 @@
       <c r="CC16" s="5"/>
       <c r="CD16" s="5"/>
       <c r="CE16" s="6"/>
+      <c r="CF16">
+        <f>CF17+CF11</f>
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:84" x14ac:dyDescent="0.25">
       <c r="C17" s="4">
         <v>1</v>
       </c>
@@ -2505,47 +2535,47 @@
         <v>45357</v>
       </c>
       <c r="AE17" s="7">
-        <f t="shared" ref="AE17:AO17" si="11">SUM(AE13:AE16)</f>
+        <f t="shared" ref="AE17:AO17" si="13">SUM(AE13:AE16)</f>
         <v>7</v>
       </c>
       <c r="AF17" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AG17" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH17" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI17" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ17" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AK17" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL17" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM17" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AN17" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="AO17" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP17" s="10">
@@ -2557,47 +2587,47 @@
         <v>45357</v>
       </c>
       <c r="AS17" s="7">
-        <f t="shared" ref="AS17:BC17" si="12">SUM(AS13:AS16)</f>
+        <f t="shared" ref="AS17:BC17" si="14">SUM(AS13:AS16)</f>
         <v>6</v>
       </c>
       <c r="AT17" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AU17" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AV17" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="AW17" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AX17" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AY17" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ17" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BA17" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BB17" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="BC17" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="BD17" s="10">
@@ -2626,21 +2656,59 @@
       </c>
       <c r="BQ17" s="3"/>
       <c r="BS17" s="5"/>
-      <c r="BU17" s="12">
-        <v>1</v>
-      </c>
-      <c r="BV17" s="5"/>
-      <c r="BW17" s="5"/>
-      <c r="BX17" s="5"/>
-      <c r="BY17" s="5"/>
-      <c r="BZ17" s="5"/>
-      <c r="CA17" s="5"/>
-      <c r="CB17" s="5"/>
-      <c r="CC17" s="5"/>
-      <c r="CD17" s="5"/>
-      <c r="CE17" s="6"/>
+      <c r="BT17" s="16">
+        <v>45371</v>
+      </c>
+      <c r="BU17" s="7">
+        <f t="shared" ref="BU17:CE17" si="15">SUM(BU13:BU16)</f>
+        <v>7</v>
+      </c>
+      <c r="BV17" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BW17" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BX17" s="8">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="BY17" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BZ17" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CA17" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CB17" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CC17" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CD17" s="8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="CE17" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CF17" s="10">
+        <f>SUM(BU17:CE17)</f>
+        <v>16</v>
+      </c>
     </row>
-    <row r="18" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:84" x14ac:dyDescent="0.25">
       <c r="C18" s="4">
         <v>2</v>
       </c>
@@ -2666,43 +2734,43 @@
         <v>9</v>
       </c>
       <c r="R18" s="8">
-        <f t="shared" ref="R18:AA18" si="13">SUM(R13:R17)</f>
+        <f t="shared" ref="R18:AA18" si="16">SUM(R13:R17)</f>
         <v>0</v>
       </c>
       <c r="S18" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T18" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="U18" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V18" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W18" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X18" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y18" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z18" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="AA18" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB18" s="10">
@@ -2753,9 +2821,7 @@
       <c r="BQ18" s="6"/>
       <c r="BR18" s="5"/>
       <c r="BS18" s="5"/>
-      <c r="BU18" s="12">
-        <v>2</v>
-      </c>
+      <c r="BU18" s="5"/>
       <c r="BV18" s="5"/>
       <c r="BW18" s="5"/>
       <c r="BX18" s="5"/>
@@ -2765,54 +2831,54 @@
       <c r="CB18" s="5"/>
       <c r="CC18" s="5"/>
       <c r="CD18" s="5"/>
-      <c r="CE18" s="6"/>
+      <c r="CE18" s="5"/>
     </row>
-    <row r="19" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
         <v>45357</v>
       </c>
       <c r="C19" s="7">
-        <f t="shared" ref="C19:M19" si="14">SUM(C13:C18)</f>
+        <f t="shared" ref="C19:M19" si="17">SUM(C13:C18)</f>
         <v>10</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="M19" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N19" s="10">
@@ -2860,7 +2926,7 @@
       </c>
       <c r="AT19" s="2"/>
       <c r="AU19" s="2"/>
-      <c r="AV19" s="30">
+      <c r="AV19" s="21">
         <v>1.5</v>
       </c>
       <c r="AW19" s="2"/>
@@ -2892,58 +2958,27 @@
       <c r="BR19" s="5"/>
       <c r="BS19" s="5"/>
       <c r="BT19" s="16">
-        <v>45357</v>
-      </c>
-      <c r="BU19" s="7">
-        <f t="shared" ref="BU19:CE19" si="15">SUM(BU13:BU18)</f>
-        <v>10</v>
-      </c>
-      <c r="BV19" s="8">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BW19" s="8">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BX19" s="8">
-        <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-      <c r="BY19" s="8">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BZ19" s="8">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CA19" s="8">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CB19" s="8">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CC19" s="8">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CD19" s="8">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="CE19" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CF19">
-        <f>SUM(BU19:CE19)</f>
-        <v>17</v>
+        <v>45372</v>
+      </c>
+      <c r="BU19" s="11">
+        <v>1</v>
+      </c>
+      <c r="BV19" s="2"/>
+      <c r="BW19" s="2"/>
+      <c r="BX19" s="17">
+        <v>1</v>
+      </c>
+      <c r="BY19" s="2"/>
+      <c r="BZ19" s="2"/>
+      <c r="CA19" s="2"/>
+      <c r="CB19" s="2"/>
+      <c r="CC19" s="2"/>
+      <c r="CD19" s="2"/>
+      <c r="CE19" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:84" x14ac:dyDescent="0.25">
       <c r="P20" s="16">
         <v>45358</v>
       </c>
@@ -3017,19 +3052,23 @@
       <c r="BQ20" s="6"/>
       <c r="BR20" s="5"/>
       <c r="BS20" s="5"/>
-      <c r="BU20" s="5"/>
+      <c r="BU20" s="12">
+        <v>2</v>
+      </c>
       <c r="BV20" s="5"/>
       <c r="BW20" s="5"/>
-      <c r="BX20" s="5"/>
+      <c r="BX20" s="10">
+        <v>2</v>
+      </c>
       <c r="BY20" s="5"/>
       <c r="BZ20" s="5"/>
       <c r="CA20" s="5"/>
       <c r="CB20" s="5"/>
       <c r="CC20" s="5"/>
       <c r="CD20" s="5"/>
-      <c r="CE20" s="5"/>
+      <c r="CE20" s="6"/>
     </row>
-    <row r="21" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B21" s="16">
         <v>45358</v>
       </c>
@@ -3118,28 +3157,27 @@
         <v>39</v>
       </c>
       <c r="BS21" s="5"/>
-      <c r="BT21" s="16">
-        <v>45358</v>
-      </c>
-      <c r="BU21" s="11">
-        <v>2</v>
-      </c>
-      <c r="BV21" s="2"/>
-      <c r="BW21" s="2"/>
-      <c r="BX21" s="2">
-        <v>1</v>
-      </c>
-      <c r="BY21" s="2"/>
-      <c r="BZ21" s="2"/>
-      <c r="CA21" s="2"/>
-      <c r="CB21" s="2"/>
-      <c r="CC21" s="2"/>
-      <c r="CD21" s="2">
-        <v>2</v>
-      </c>
-      <c r="CE21" s="3"/>
+      <c r="BU21" s="12">
+        <v>2</v>
+      </c>
+      <c r="BV21" s="5"/>
+      <c r="BW21" s="5"/>
+      <c r="BX21" s="10">
+        <v>1</v>
+      </c>
+      <c r="BY21" s="5"/>
+      <c r="BZ21" s="5"/>
+      <c r="CA21" s="5"/>
+      <c r="CB21" s="5"/>
+      <c r="CC21" s="5"/>
+      <c r="CD21" s="5"/>
+      <c r="CE21" s="6"/>
+      <c r="CF21">
+        <f>CF22+CF16</f>
+        <v>44</v>
+      </c>
     </row>
-    <row r="22" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:84" x14ac:dyDescent="0.25">
       <c r="C22" s="4">
         <v>2</v>
       </c>
@@ -3205,47 +3243,47 @@
         <v>45371</v>
       </c>
       <c r="BG22" s="7">
-        <f t="shared" ref="BG22:BQ22" si="16">SUM(BG17:BG21)</f>
+        <f t="shared" ref="BG22:BQ22" si="18">SUM(BG17:BG21)</f>
         <v>8</v>
       </c>
       <c r="BH22" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BI22" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BJ22" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="BK22" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BL22" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BM22" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BN22" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BO22" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BP22" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="BQ22" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BR22" s="10">
@@ -3253,23 +3291,59 @@
         <v>14</v>
       </c>
       <c r="BS22" s="5"/>
-      <c r="BU22" s="12">
-        <v>2</v>
-      </c>
-      <c r="BV22" s="5"/>
-      <c r="BW22" s="5"/>
-      <c r="BX22" s="5">
-        <v>2</v>
-      </c>
-      <c r="BY22" s="5"/>
-      <c r="BZ22" s="5"/>
-      <c r="CA22" s="5"/>
-      <c r="CB22" s="5"/>
-      <c r="CC22" s="5"/>
-      <c r="CD22" s="5"/>
-      <c r="CE22" s="6"/>
+      <c r="BT22" s="16">
+        <v>45383</v>
+      </c>
+      <c r="BU22" s="13">
+        <f t="shared" ref="BU22:CE22" si="19">SUM(BU19:BU21)</f>
+        <v>5</v>
+      </c>
+      <c r="BV22" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BW22" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BX22" s="8">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="BY22" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BZ22" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="CA22" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="CB22" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="CC22" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="CD22" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="CE22" s="9">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="CF22" s="10">
+        <f>SUM(BU22:CE22)</f>
+        <v>11</v>
+      </c>
     </row>
-    <row r="23" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:84" x14ac:dyDescent="0.25">
       <c r="C23" s="4">
         <v>1</v>
       </c>
@@ -3291,43 +3365,43 @@
         <v>6</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" ref="R23:AA23" si="17">SUM(R20:R22)</f>
+        <f t="shared" ref="R23:AA23" si="20">SUM(R20:R22)</f>
         <v>0</v>
       </c>
       <c r="S23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="V23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="X23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="Y23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="AA23" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AB23" s="10">
@@ -3357,23 +3431,23 @@
         <v>45371</v>
       </c>
       <c r="AS23" s="7">
-        <f t="shared" ref="AS23:BC23" si="18">SUM(AS19:AS22)</f>
+        <f t="shared" ref="AS23:BC23" si="21">SUM(AS19:AS22)</f>
         <v>5</v>
       </c>
       <c r="AT23" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AU23" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AV23" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5</v>
       </c>
       <c r="AW23" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AX23" s="8">
@@ -3381,23 +3455,23 @@
         <v>4</v>
       </c>
       <c r="AY23" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AZ23" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BA23" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BB23" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BC23" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BD23" s="10">
@@ -3418,23 +3492,19 @@
       <c r="BQ23" s="5"/>
       <c r="BR23" s="5"/>
       <c r="BS23" s="5"/>
-      <c r="BU23" s="12">
-        <v>1</v>
-      </c>
-      <c r="BV23" s="5"/>
-      <c r="BW23" s="5"/>
-      <c r="BX23" s="5">
-        <v>2</v>
-      </c>
-      <c r="BY23" s="5"/>
-      <c r="BZ23" s="5"/>
-      <c r="CA23" s="5"/>
-      <c r="CB23" s="5"/>
-      <c r="CC23" s="5"/>
-      <c r="CD23" s="5"/>
-      <c r="CE23" s="6"/>
+      <c r="BU23" s="10"/>
+      <c r="BV23" s="10"/>
+      <c r="BW23" s="10"/>
+      <c r="BX23" s="10"/>
+      <c r="BY23" s="10"/>
+      <c r="BZ23" s="10"/>
+      <c r="CA23" s="10"/>
+      <c r="CB23" s="10"/>
+      <c r="CC23" s="10"/>
+      <c r="CD23" s="10"/>
+      <c r="CE23" s="10"/>
     </row>
-    <row r="24" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:84" x14ac:dyDescent="0.25">
       <c r="C24" s="4">
         <v>1</v>
       </c>
@@ -3465,47 +3535,47 @@
         <v>45371</v>
       </c>
       <c r="AE24" s="7">
-        <f t="shared" ref="AE24:AO24" si="19">SUM(AE19:AE23)</f>
+        <f t="shared" ref="AE24:AO24" si="22">SUM(AE19:AE23)</f>
         <v>8</v>
       </c>
       <c r="AF24" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AG24" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AH24" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI24" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AJ24" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AK24" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AL24" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AM24" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AN24" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AO24" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AP24" s="10">
@@ -3543,27 +3613,34 @@
       <c r="BP24" s="2"/>
       <c r="BQ24" s="3"/>
       <c r="BS24" s="5"/>
-      <c r="BU24" s="12">
-        <v>2</v>
-      </c>
-      <c r="BV24" s="5"/>
-      <c r="BW24" s="5"/>
-      <c r="BX24" s="10">
-        <v>2</v>
-      </c>
-      <c r="BY24" s="5"/>
-      <c r="BZ24" s="5"/>
-      <c r="CA24" s="5"/>
-      <c r="CB24" s="5"/>
-      <c r="CC24" s="5"/>
-      <c r="CD24" s="5"/>
-      <c r="CE24" s="6"/>
-      <c r="CF24">
-        <f>CF25+CF19</f>
-        <v>33</v>
+      <c r="BT24" s="16">
+        <v>45384</v>
+      </c>
+      <c r="BU24" s="11">
+        <v>2</v>
+      </c>
+      <c r="BV24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW24" s="2"/>
+      <c r="BX24" s="2"/>
+      <c r="BY24" s="2"/>
+      <c r="BZ24" s="2">
+        <v>2</v>
+      </c>
+      <c r="CA24" s="2">
+        <v>1</v>
+      </c>
+      <c r="CB24" s="2">
+        <v>1</v>
+      </c>
+      <c r="CC24" s="2"/>
+      <c r="CD24" s="2"/>
+      <c r="CE24" s="18">
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:84" x14ac:dyDescent="0.25">
       <c r="C25" s="4">
         <v>2</v>
       </c>
@@ -3654,104 +3731,72 @@
         <v>42</v>
       </c>
       <c r="BS25" s="5"/>
-      <c r="BT25" s="16">
-        <v>45371</v>
-      </c>
-      <c r="BU25" s="7">
-        <f t="shared" ref="BU25:CE25" si="20">SUM(BU21:BU24)</f>
-        <v>7</v>
-      </c>
-      <c r="BV25" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BW25" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BX25" s="8">
-        <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="BY25" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BZ25" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="CA25" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="CB25" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="CC25" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="CD25" s="8">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="CE25" s="9">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="CF25" s="10">
-        <f>SUM(BU25:CE25)</f>
-        <v>16</v>
+      <c r="BU25" s="12">
+        <v>2</v>
+      </c>
+      <c r="BV25" s="5"/>
+      <c r="BW25" s="5"/>
+      <c r="BX25" s="5"/>
+      <c r="BY25" s="5"/>
+      <c r="BZ25" s="5">
+        <v>2</v>
+      </c>
+      <c r="CA25" s="5">
+        <v>1</v>
+      </c>
+      <c r="CB25" s="5"/>
+      <c r="CC25" s="5"/>
+      <c r="CD25" s="5"/>
+      <c r="CE25" s="6">
+        <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B26" s="16">
         <v>45371</v>
       </c>
       <c r="C26" s="7">
-        <f t="shared" ref="C26:M26" si="21">SUM(C21:C25)</f>
+        <f t="shared" ref="C26:M26" si="23">SUM(C21:C25)</f>
         <v>8</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L26" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="M26" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N26" s="10">
@@ -3817,47 +3862,47 @@
         <v>45383</v>
       </c>
       <c r="BG26" s="7">
-        <f t="shared" ref="BG26:BQ26" si="22">SUM(BG24:BG25)</f>
+        <f t="shared" ref="BG26:BQ26" si="24">SUM(BG24:BG25)</f>
         <v>3</v>
       </c>
       <c r="BH26" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BI26" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BJ26" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BK26" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BL26" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BM26" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BN26" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BO26" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BP26" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BQ26" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BR26" s="10">
@@ -3865,19 +3910,25 @@
         <v>3</v>
       </c>
       <c r="BS26" s="5"/>
-      <c r="BU26" s="5"/>
+      <c r="BU26" s="12">
+        <v>2</v>
+      </c>
       <c r="BV26" s="5"/>
       <c r="BW26" s="5"/>
       <c r="BX26" s="5"/>
       <c r="BY26" s="5"/>
-      <c r="BZ26" s="5"/>
-      <c r="CA26" s="5"/>
+      <c r="BZ26" s="5">
+        <v>2</v>
+      </c>
+      <c r="CA26" s="5">
+        <v>1</v>
+      </c>
       <c r="CB26" s="5"/>
       <c r="CC26" s="5"/>
       <c r="CD26" s="5"/>
-      <c r="CE26" s="5"/>
+      <c r="CE26" s="6"/>
     </row>
-    <row r="27" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:84" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -3926,23 +3977,23 @@
         <v>45383</v>
       </c>
       <c r="AS27" s="7">
-        <f t="shared" ref="AS27:BC27" si="23">SUM(AS25:AS26)</f>
+        <f t="shared" ref="AS27:BC27" si="25">SUM(AS25:AS26)</f>
         <v>3</v>
       </c>
       <c r="AT27" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU27" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AV27" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AW27" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AX27" s="8">
@@ -3950,23 +4001,23 @@
         <v>0</v>
       </c>
       <c r="AY27" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AZ27" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BA27" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BB27" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BC27" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BD27" s="10">
@@ -3986,28 +4037,21 @@
       <c r="BP27" s="5"/>
       <c r="BQ27" s="5"/>
       <c r="BS27" s="5"/>
-      <c r="BT27" s="16">
-        <v>45372</v>
-      </c>
-      <c r="BU27" s="11">
-        <v>1</v>
-      </c>
-      <c r="BV27" s="2"/>
-      <c r="BW27" s="2"/>
-      <c r="BX27" s="17">
-        <v>1</v>
-      </c>
-      <c r="BY27" s="2"/>
-      <c r="BZ27" s="2"/>
-      <c r="CA27" s="2"/>
-      <c r="CB27" s="2"/>
-      <c r="CC27" s="2"/>
-      <c r="CD27" s="2"/>
-      <c r="CE27" s="3">
-        <v>2</v>
-      </c>
+      <c r="BU27" s="12">
+        <v>2</v>
+      </c>
+      <c r="BV27" s="5"/>
+      <c r="BW27" s="5"/>
+      <c r="BX27" s="5"/>
+      <c r="BY27" s="5"/>
+      <c r="BZ27" s="5"/>
+      <c r="CA27" s="5"/>
+      <c r="CB27" s="5"/>
+      <c r="CC27" s="5"/>
+      <c r="CD27" s="5"/>
+      <c r="CE27" s="6"/>
     </row>
-    <row r="28" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B28" s="16">
         <v>45372</v>
       </c>
@@ -4034,47 +4078,47 @@
         <v>45383</v>
       </c>
       <c r="Q28" s="13">
-        <f t="shared" ref="Q28:AA28" si="24">SUM(Q25:Q27)</f>
+        <f t="shared" ref="Q28:AA28" si="26">SUM(Q25:Q27)</f>
         <v>6</v>
       </c>
       <c r="R28" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S28" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T28" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="U28" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V28" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W28" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="X28" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Y28" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z28" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="AA28" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AB28" s="10">
@@ -4141,9 +4185,7 @@
       </c>
       <c r="BV28" s="5"/>
       <c r="BW28" s="5"/>
-      <c r="BX28" s="10">
-        <v>2</v>
-      </c>
+      <c r="BX28" s="5"/>
       <c r="BY28" s="5"/>
       <c r="BZ28" s="5"/>
       <c r="CA28" s="5"/>
@@ -4152,7 +4194,7 @@
       <c r="CD28" s="5"/>
       <c r="CE28" s="6"/>
     </row>
-    <row r="29" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:84" x14ac:dyDescent="0.25">
       <c r="C29" s="12">
         <v>2</v>
       </c>
@@ -4185,47 +4227,47 @@
         <v>45383</v>
       </c>
       <c r="AE29" s="13">
-        <f t="shared" ref="AE29:AO29" si="25">SUM(AE26:AE28)</f>
+        <f t="shared" ref="AE29:AO29" si="27">SUM(AE26:AE28)</f>
         <v>5</v>
       </c>
       <c r="AF29" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AG29" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AH29" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AI29" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AJ29" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AK29" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AL29" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AM29" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AN29" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AO29" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AP29" s="10">
@@ -4283,9 +4325,7 @@
       </c>
       <c r="BV29" s="5"/>
       <c r="BW29" s="5"/>
-      <c r="BX29" s="10">
-        <v>1</v>
-      </c>
+      <c r="BX29" s="5"/>
       <c r="BY29" s="5"/>
       <c r="BZ29" s="5"/>
       <c r="CA29" s="5"/>
@@ -4294,11 +4334,11 @@
       <c r="CD29" s="5"/>
       <c r="CE29" s="6"/>
       <c r="CF29">
-        <f>CF30+CF24</f>
-        <v>44</v>
+        <f>CF30+CF21</f>
+        <v>73</v>
       </c>
     </row>
-    <row r="30" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:84" x14ac:dyDescent="0.25">
       <c r="C30" s="12">
         <v>2</v>
       </c>
@@ -4392,103 +4432,103 @@
       <c r="BR30" s="5"/>
       <c r="BS30" s="5"/>
       <c r="BT30" s="16">
-        <v>45383</v>
-      </c>
-      <c r="BU30" s="13">
-        <f t="shared" ref="BU30:CE30" si="26">SUM(BU27:BU29)</f>
-        <v>5</v>
+        <v>45414</v>
+      </c>
+      <c r="BU30" s="7">
+        <f>SUM(BU24:BU29)</f>
+        <v>12</v>
       </c>
       <c r="BV30" s="8">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" ref="BV30:CE30" si="28">SUM(BV24:BV27)</f>
+        <v>1</v>
       </c>
       <c r="BW30" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="BX30" s="8">
-        <f t="shared" si="26"/>
-        <v>4</v>
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="BY30" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="BZ30" s="8">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>6</v>
       </c>
       <c r="CA30" s="8">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>3</v>
       </c>
       <c r="CB30" s="8">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="CC30" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="CD30" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="CE30" s="9">
-        <f t="shared" si="26"/>
-        <v>2</v>
+        <f t="shared" si="28"/>
+        <v>6</v>
       </c>
       <c r="CF30" s="10">
         <f>SUM(BU30:CE30)</f>
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B31" s="16">
         <v>45383</v>
       </c>
       <c r="C31" s="13">
-        <f t="shared" ref="C31:M31" si="27">SUM(C28:C30)</f>
+        <f t="shared" ref="C31:M31" si="29">SUM(C28:C30)</f>
         <v>5</v>
       </c>
       <c r="D31" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="E31" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="F31" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.5</v>
       </c>
       <c r="G31" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H31" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I31" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J31" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="K31" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L31" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.5</v>
       </c>
       <c r="M31" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N31" s="10">
@@ -4571,19 +4611,19 @@
       <c r="BQ31" s="19"/>
       <c r="BR31" s="5"/>
       <c r="BS31" s="5"/>
-      <c r="BU31" s="10"/>
-      <c r="BV31" s="10"/>
-      <c r="BW31" s="10"/>
-      <c r="BX31" s="10"/>
-      <c r="BY31" s="10"/>
-      <c r="BZ31" s="10"/>
-      <c r="CA31" s="10"/>
-      <c r="CB31" s="10"/>
-      <c r="CC31" s="10"/>
-      <c r="CD31" s="10"/>
-      <c r="CE31" s="10"/>
+      <c r="BU31" s="5"/>
+      <c r="BV31" s="5"/>
+      <c r="BW31" s="5"/>
+      <c r="BX31" s="5"/>
+      <c r="BY31" s="5"/>
+      <c r="BZ31" s="5"/>
+      <c r="CA31" s="5"/>
+      <c r="CB31" s="5"/>
+      <c r="CC31" s="5"/>
+      <c r="CD31" s="5"/>
+      <c r="CE31" s="5"/>
     </row>
-    <row r="32" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:84" x14ac:dyDescent="0.25">
       <c r="C32" s="10"/>
       <c r="Q32" s="12">
         <v>2</v>
@@ -4627,47 +4667,47 @@
         <v>45414</v>
       </c>
       <c r="AS32" s="13">
-        <f t="shared" ref="AS32:BC32" si="28">SUM(AS29:AS31)</f>
+        <f t="shared" ref="AS32:BC32" si="30">SUM(AS29:AS31)</f>
         <v>4</v>
       </c>
       <c r="AT32" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AU32" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AV32" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AW32" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AX32" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="AY32" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AZ32" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BA32" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="BB32" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BC32" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="BD32" s="10">
@@ -4694,33 +4734,29 @@
       </c>
       <c r="BS32" s="5"/>
       <c r="BT32" s="16">
-        <v>45384</v>
+        <v>45415</v>
       </c>
       <c r="BU32" s="11">
         <v>2</v>
       </c>
       <c r="BV32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BW32" s="2"/>
       <c r="BX32" s="2"/>
       <c r="BY32" s="2"/>
       <c r="BZ32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CA32" s="2">
-        <v>1</v>
-      </c>
-      <c r="CB32" s="2">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="CB32" s="2"/>
       <c r="CC32" s="2"/>
       <c r="CD32" s="2"/>
-      <c r="CE32" s="18">
-        <v>1</v>
-      </c>
+      <c r="CE32" s="3"/>
     </row>
-    <row r="33" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B33" s="16">
         <v>45384</v>
       </c>
@@ -4792,47 +4828,47 @@
         <v>45414</v>
       </c>
       <c r="BG33" s="7">
-        <f t="shared" ref="BG33:BQ33" si="29">SUM(BG28:BG32)</f>
+        <f t="shared" ref="BG33:BQ33" si="31">SUM(BG28:BG32)</f>
         <v>10</v>
       </c>
       <c r="BH33" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BI33" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BJ33" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BK33" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BL33" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="BM33" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="BN33" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BO33" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BP33" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BQ33" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="BR33" s="10">
@@ -4843,24 +4879,22 @@
       <c r="BU33" s="12">
         <v>2</v>
       </c>
-      <c r="BV33" s="5"/>
+      <c r="BV33" s="5">
+        <v>3</v>
+      </c>
       <c r="BW33" s="5"/>
       <c r="BX33" s="5"/>
       <c r="BY33" s="5"/>
       <c r="BZ33" s="5">
         <v>2</v>
       </c>
-      <c r="CA33" s="5">
-        <v>1</v>
-      </c>
+      <c r="CA33" s="5"/>
       <c r="CB33" s="5"/>
       <c r="CC33" s="5"/>
       <c r="CD33" s="5"/>
-      <c r="CE33" s="6">
-        <v>5</v>
-      </c>
+      <c r="CE33" s="6"/>
     </row>
-    <row r="34" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:84" x14ac:dyDescent="0.25">
       <c r="C34" s="4">
         <v>2</v>
       </c>
@@ -4946,24 +4980,22 @@
       <c r="BR34" s="5"/>
       <c r="BS34" s="5"/>
       <c r="BU34" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BV34" s="5"/>
       <c r="BW34" s="5"/>
       <c r="BX34" s="5"/>
       <c r="BY34" s="5"/>
       <c r="BZ34" s="5">
-        <v>2</v>
-      </c>
-      <c r="CA34" s="5">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="CA34" s="5"/>
       <c r="CB34" s="5"/>
       <c r="CC34" s="5"/>
       <c r="CD34" s="5"/>
       <c r="CE34" s="6"/>
     </row>
-    <row r="35" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:84" x14ac:dyDescent="0.25">
       <c r="C35" s="4">
         <v>2</v>
       </c>
@@ -5065,14 +5097,16 @@
       <c r="BW35" s="5"/>
       <c r="BX35" s="5"/>
       <c r="BY35" s="5"/>
-      <c r="BZ35" s="5"/>
+      <c r="BZ35" s="10">
+        <v>4</v>
+      </c>
       <c r="CA35" s="5"/>
       <c r="CB35" s="5"/>
       <c r="CC35" s="5"/>
       <c r="CD35" s="5"/>
       <c r="CE35" s="6"/>
     </row>
-    <row r="36" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:84" x14ac:dyDescent="0.25">
       <c r="C36" s="4">
         <v>2</v>
       </c>
@@ -5094,47 +5128,47 @@
         <v>45414</v>
       </c>
       <c r="Q36" s="7">
-        <f t="shared" ref="Q36:AA36" si="30">SUM(Q30:Q35)</f>
+        <f t="shared" ref="Q36:AA36" si="32">SUM(Q30:Q35)</f>
         <v>12</v>
       </c>
       <c r="R36" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S36" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="T36" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="U36" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V36" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="W36" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="X36" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="Y36" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Z36" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AA36" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="AB36" s="10">
@@ -5146,47 +5180,47 @@
         <v>45414</v>
       </c>
       <c r="AE36" s="7">
-        <f t="shared" ref="AE36:AO36" si="31">SUM(AE31:AE35)</f>
+        <f t="shared" ref="AE36:AO36" si="33">SUM(AE31:AE35)</f>
         <v>8</v>
       </c>
       <c r="AF36" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AG36" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH36" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI36" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AJ36" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>17</v>
       </c>
       <c r="AK36" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AL36" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AM36" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AN36" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AO36" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="AP36" s="10">
@@ -5228,66 +5262,66 @@
       <c r="BQ36" s="6"/>
       <c r="BR36" s="5"/>
       <c r="BS36" s="5"/>
-      <c r="BU36" s="12">
-        <v>2</v>
-      </c>
+      <c r="BU36" s="4"/>
       <c r="BV36" s="5"/>
       <c r="BW36" s="5"/>
       <c r="BX36" s="5"/>
       <c r="BY36" s="5"/>
-      <c r="BZ36" s="5"/>
+      <c r="BZ36" s="10">
+        <v>4</v>
+      </c>
       <c r="CA36" s="5"/>
       <c r="CB36" s="5"/>
       <c r="CC36" s="5"/>
       <c r="CD36" s="5"/>
       <c r="CE36" s="6"/>
     </row>
-    <row r="37" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B37" s="16">
         <v>45414</v>
       </c>
       <c r="C37" s="7">
-        <f t="shared" ref="C37:M37" si="32">SUM(C33:C36)</f>
+        <f t="shared" ref="C37:M37" si="34">SUM(C33:C36)</f>
         <v>8</v>
       </c>
       <c r="D37" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H37" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="I37" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J37" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K37" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M37" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="N37" s="10">
@@ -5356,25 +5390,21 @@
         <v>93</v>
       </c>
       <c r="BS37" s="5"/>
-      <c r="BU37" s="12">
-        <v>2</v>
-      </c>
+      <c r="BU37" s="4"/>
       <c r="BV37" s="5"/>
       <c r="BW37" s="5"/>
       <c r="BX37" s="5"/>
       <c r="BY37" s="5"/>
-      <c r="BZ37" s="5"/>
+      <c r="BZ37" s="10">
+        <v>8</v>
+      </c>
       <c r="CA37" s="5"/>
       <c r="CB37" s="5"/>
       <c r="CC37" s="5"/>
       <c r="CD37" s="5"/>
       <c r="CE37" s="6"/>
-      <c r="CF37">
-        <f>CF38+CF29</f>
-        <v>73</v>
-      </c>
     </row>
-    <row r="38" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:84" x14ac:dyDescent="0.25">
       <c r="P38" s="16">
         <v>45415</v>
       </c>
@@ -5429,47 +5459,47 @@
         <v>45428</v>
       </c>
       <c r="AS38" s="7">
-        <f t="shared" ref="AS38:BC38" si="33">SUM(AS34:AS37)</f>
+        <f t="shared" ref="AS38:BC38" si="35">SUM(AS34:AS37)</f>
         <v>6</v>
       </c>
       <c r="AT38" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AU38" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AV38" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AW38" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AX38" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AY38" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="AZ38" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BA38" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
       <c r="BB38" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BC38" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BD38" s="10">
@@ -5481,47 +5511,47 @@
         <v>45428</v>
       </c>
       <c r="BG38" s="7">
-        <f t="shared" ref="BG38:BQ38" si="34">SUM(BG35:BG37)</f>
+        <f t="shared" ref="BG38:BQ38" si="36">SUM(BG35:BG37)</f>
         <v>5</v>
       </c>
       <c r="BH38" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="BI38" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BJ38" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="BK38" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="BL38" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="BM38" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="BN38" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BO38" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BP38" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BQ38" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BR38" s="10">
@@ -5529,59 +5559,21 @@
         <v>25</v>
       </c>
       <c r="BS38" s="5"/>
-      <c r="BT38" s="16">
-        <v>45414</v>
-      </c>
-      <c r="BU38" s="7">
-        <f>SUM(BU32:BU37)</f>
-        <v>12</v>
-      </c>
-      <c r="BV38" s="8">
-        <f t="shared" ref="BV38:CE38" si="35">SUM(BV32:BV35)</f>
-        <v>1</v>
-      </c>
-      <c r="BW38" s="8">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="BX38" s="8">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="BY38" s="8">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="BZ38" s="8">
-        <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="CA38" s="8">
-        <f t="shared" si="35"/>
-        <v>3</v>
-      </c>
-      <c r="CB38" s="8">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="CC38" s="8">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="CD38" s="8">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="CE38" s="9">
-        <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="CF38" s="10">
-        <f>SUM(BU38:CE38)</f>
-        <v>29</v>
-      </c>
+      <c r="BU38" s="4"/>
+      <c r="BV38" s="5"/>
+      <c r="BW38" s="5"/>
+      <c r="BX38" s="5"/>
+      <c r="BY38" s="5"/>
+      <c r="BZ38" s="10">
+        <v>9</v>
+      </c>
+      <c r="CA38" s="5"/>
+      <c r="CB38" s="5"/>
+      <c r="CC38" s="5"/>
+      <c r="CD38" s="5"/>
+      <c r="CE38" s="6"/>
     </row>
-    <row r="39" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B39" s="16">
         <v>45415</v>
       </c>
@@ -5662,19 +5654,25 @@
       <c r="BQ39" s="5"/>
       <c r="BR39" s="5"/>
       <c r="BS39" s="5"/>
-      <c r="BU39" s="5"/>
+      <c r="BU39" s="4"/>
       <c r="BV39" s="5"/>
       <c r="BW39" s="5"/>
       <c r="BX39" s="5"/>
       <c r="BY39" s="5"/>
-      <c r="BZ39" s="5"/>
+      <c r="BZ39" s="10">
+        <v>4</v>
+      </c>
       <c r="CA39" s="5"/>
       <c r="CB39" s="5"/>
       <c r="CC39" s="5"/>
       <c r="CD39" s="5"/>
-      <c r="CE39" s="5"/>
+      <c r="CE39" s="6"/>
+      <c r="CF39">
+        <f>CF40+CF29</f>
+        <v>126</v>
+      </c>
     </row>
-    <row r="40" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:84" x14ac:dyDescent="0.25">
       <c r="C40" s="4">
         <v>2</v>
       </c>
@@ -5725,7 +5723,9 @@
       <c r="AR40" s="16">
         <v>45429</v>
       </c>
-      <c r="AS40" s="1"/>
+      <c r="AS40" s="1">
+        <v>2</v>
+      </c>
       <c r="AT40" s="2"/>
       <c r="AU40" s="2"/>
       <c r="AV40" s="2"/>
@@ -5747,43 +5747,78 @@
       <c r="BF40" s="16">
         <v>45429</v>
       </c>
-      <c r="BG40" s="2"/>
+      <c r="BG40" s="1">
+        <v>2</v>
+      </c>
       <c r="BH40" s="2"/>
       <c r="BI40" s="2"/>
       <c r="BJ40" s="2"/>
       <c r="BK40" s="2"/>
-      <c r="BL40" s="2"/>
-      <c r="BM40" s="2"/>
+      <c r="BL40" s="2">
+        <v>3</v>
+      </c>
+      <c r="BM40" s="2">
+        <v>4</v>
+      </c>
       <c r="BN40" s="2"/>
       <c r="BO40" s="2"/>
       <c r="BP40" s="2"/>
-      <c r="BQ40" s="2"/>
+      <c r="BQ40" s="3"/>
       <c r="BR40" s="5"/>
       <c r="BS40" s="5"/>
       <c r="BT40" s="16">
-        <v>45415</v>
-      </c>
-      <c r="BU40" s="11">
-        <v>2</v>
-      </c>
-      <c r="BV40" s="2">
-        <v>2</v>
-      </c>
-      <c r="BW40" s="2"/>
-      <c r="BX40" s="2"/>
-      <c r="BY40" s="2"/>
-      <c r="BZ40" s="2">
-        <v>3</v>
-      </c>
-      <c r="CA40" s="2">
-        <v>2</v>
-      </c>
-      <c r="CB40" s="2"/>
-      <c r="CC40" s="2"/>
-      <c r="CD40" s="2"/>
-      <c r="CE40" s="3"/>
+        <v>45428</v>
+      </c>
+      <c r="BU40" s="7">
+        <f t="shared" ref="BU40:CE40" si="37">SUM(BU32:BU39)</f>
+        <v>9</v>
+      </c>
+      <c r="BV40" s="8">
+        <f t="shared" si="37"/>
+        <v>5</v>
+      </c>
+      <c r="BW40" s="8">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BX40" s="8">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BY40" s="8">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BZ40" s="8">
+        <f t="shared" si="37"/>
+        <v>37</v>
+      </c>
+      <c r="CA40" s="8">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="CB40" s="8">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="CC40" s="8">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="CD40" s="8">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="CE40" s="9">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="CF40" s="10">
+        <f>SUM(BU40:CE40)</f>
+        <v>53</v>
+      </c>
     </row>
-    <row r="41" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:84" x14ac:dyDescent="0.25">
       <c r="C41" s="4">
         <v>3</v>
       </c>
@@ -5839,7 +5874,9 @@
       <c r="AU41" s="5"/>
       <c r="AV41" s="5"/>
       <c r="AW41" s="5"/>
-      <c r="AX41" s="5"/>
+      <c r="AX41" s="5">
+        <v>1</v>
+      </c>
       <c r="AY41" s="10">
         <v>3</v>
       </c>
@@ -5849,7 +5886,7 @@
       <c r="BC41" s="6"/>
       <c r="BD41" s="5"/>
       <c r="BE41" s="5"/>
-      <c r="BG41" s="5"/>
+      <c r="BG41" s="4"/>
       <c r="BH41" s="5"/>
       <c r="BI41" s="5"/>
       <c r="BJ41" s="5"/>
@@ -5859,28 +5896,11 @@
       <c r="BN41" s="5"/>
       <c r="BO41" s="5"/>
       <c r="BP41" s="5"/>
-      <c r="BQ41" s="5"/>
+      <c r="BQ41" s="6"/>
       <c r="BR41" s="5"/>
       <c r="BS41" s="5"/>
-      <c r="BU41" s="12">
-        <v>2</v>
-      </c>
-      <c r="BV41" s="5">
-        <v>3</v>
-      </c>
-      <c r="BW41" s="5"/>
-      <c r="BX41" s="5"/>
-      <c r="BY41" s="5"/>
-      <c r="BZ41" s="5">
-        <v>2</v>
-      </c>
-      <c r="CA41" s="5"/>
-      <c r="CB41" s="5"/>
-      <c r="CC41" s="5"/>
-      <c r="CD41" s="5"/>
-      <c r="CE41" s="6"/>
     </row>
-    <row r="42" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:84" x14ac:dyDescent="0.25">
       <c r="C42" s="4">
         <v>2</v>
       </c>
@@ -5902,47 +5922,47 @@
         <v>45428</v>
       </c>
       <c r="Q42" s="7">
-        <f t="shared" ref="Q42:AA42" si="36">SUM(Q38:Q41)</f>
+        <f t="shared" ref="Q42:AA42" si="38">SUM(Q38:Q41)</f>
         <v>9</v>
       </c>
       <c r="R42" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="S42" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="T42" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="U42" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="V42" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3</v>
       </c>
       <c r="W42" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X42" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="Y42" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Z42" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AA42" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB42" s="10">
@@ -5973,7 +5993,9 @@
       <c r="AU42" s="5"/>
       <c r="AV42" s="5"/>
       <c r="AW42" s="5"/>
-      <c r="AX42" s="5"/>
+      <c r="AX42" s="5">
+        <v>1</v>
+      </c>
       <c r="AY42" s="10">
         <v>5</v>
       </c>
@@ -5983,7 +6005,7 @@
       <c r="BC42" s="6"/>
       <c r="BD42" s="5"/>
       <c r="BE42" s="5"/>
-      <c r="BG42" s="5"/>
+      <c r="BG42" s="4"/>
       <c r="BH42" s="5"/>
       <c r="BI42" s="5"/>
       <c r="BJ42" s="5"/>
@@ -5993,71 +6015,76 @@
       <c r="BN42" s="5"/>
       <c r="BO42" s="5"/>
       <c r="BP42" s="5"/>
-      <c r="BQ42" s="5"/>
+      <c r="BQ42" s="6"/>
       <c r="BR42" s="5"/>
       <c r="BS42" s="5"/>
-      <c r="BU42" s="12">
+      <c r="BT42" s="16">
+        <v>45429</v>
+      </c>
+      <c r="BU42" s="1">
+        <v>2</v>
+      </c>
+      <c r="BV42" s="2">
+        <v>2</v>
+      </c>
+      <c r="BW42" s="2"/>
+      <c r="BX42" s="2"/>
+      <c r="BY42" s="2"/>
+      <c r="BZ42" s="2">
         <v>3</v>
       </c>
-      <c r="BV42" s="5"/>
-      <c r="BW42" s="5"/>
-      <c r="BX42" s="5"/>
-      <c r="BY42" s="5"/>
-      <c r="BZ42" s="5">
-        <v>3</v>
-      </c>
-      <c r="CA42" s="5"/>
-      <c r="CB42" s="5"/>
-      <c r="CC42" s="5"/>
-      <c r="CD42" s="5"/>
-      <c r="CE42" s="6"/>
+      <c r="CA42" s="2"/>
+      <c r="CB42" s="2"/>
+      <c r="CC42" s="2"/>
+      <c r="CD42" s="2"/>
+      <c r="CE42" s="3"/>
     </row>
-    <row r="43" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B43" s="16">
         <v>45428</v>
       </c>
       <c r="C43" s="7">
-        <f t="shared" ref="C43:M43" si="37">SUM(C39:C42)</f>
+        <f t="shared" ref="C43:M43" si="39">SUM(C39:C42)</f>
         <v>9</v>
       </c>
       <c r="D43" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="E43" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="F43" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>11</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J43" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="K43" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M43" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N43" s="10">
@@ -6081,47 +6108,47 @@
         <v>45428</v>
       </c>
       <c r="AE43" s="7">
-        <f t="shared" ref="AE43:AO43" si="38">SUM(AE38:AE42)</f>
+        <f t="shared" ref="AE43:AO43" si="40">SUM(AE38:AE42)</f>
         <v>4</v>
       </c>
       <c r="AF43" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>6</v>
       </c>
       <c r="AG43" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AH43" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AI43" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AJ43" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
       <c r="AK43" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AL43" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AM43" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AN43" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AO43" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AP43" s="10">
@@ -6142,7 +6169,7 @@
       <c r="BC43" s="6"/>
       <c r="BD43" s="5"/>
       <c r="BE43" s="5"/>
-      <c r="BG43" s="5"/>
+      <c r="BG43" s="4"/>
       <c r="BH43" s="5"/>
       <c r="BI43" s="5"/>
       <c r="BJ43" s="5"/>
@@ -6152,13 +6179,13 @@
       <c r="BN43" s="5"/>
       <c r="BO43" s="5"/>
       <c r="BP43" s="5"/>
-      <c r="BQ43" s="5"/>
+      <c r="BQ43" s="6"/>
       <c r="BR43" s="5"/>
       <c r="BS43" s="5"/>
-      <c r="BU43" s="12">
-        <v>2</v>
-      </c>
-      <c r="BV43" s="5"/>
+      <c r="BU43" s="4"/>
+      <c r="BV43" s="5">
+        <v>2</v>
+      </c>
       <c r="BW43" s="5"/>
       <c r="BX43" s="5"/>
       <c r="BY43" s="5"/>
@@ -6171,11 +6198,13 @@
       <c r="CD43" s="5"/>
       <c r="CE43" s="6"/>
     </row>
-    <row r="44" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:84" x14ac:dyDescent="0.25">
       <c r="P44" s="16">
         <v>45429</v>
       </c>
-      <c r="Q44" s="1"/>
+      <c r="Q44" s="1">
+        <v>2</v>
+      </c>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
@@ -6201,13 +6230,24 @@
       <c r="BA44" s="5"/>
       <c r="BB44" s="5"/>
       <c r="BC44" s="6"/>
+      <c r="BG44" s="4"/>
+      <c r="BH44" s="5"/>
+      <c r="BI44" s="5"/>
+      <c r="BJ44" s="5"/>
+      <c r="BK44" s="5"/>
+      <c r="BL44" s="5"/>
+      <c r="BM44" s="5"/>
+      <c r="BN44" s="5"/>
+      <c r="BO44" s="5"/>
+      <c r="BP44" s="5"/>
+      <c r="BQ44" s="6"/>
       <c r="BU44" s="4"/>
       <c r="BV44" s="5"/>
       <c r="BW44" s="5"/>
       <c r="BX44" s="5"/>
       <c r="BY44" s="5"/>
       <c r="BZ44" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CA44" s="5"/>
       <c r="CB44" s="5"/>
@@ -6215,11 +6255,13 @@
       <c r="CD44" s="5"/>
       <c r="CE44" s="6"/>
     </row>
-    <row r="45" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B45" s="16">
         <v>45429</v>
       </c>
-      <c r="C45" s="1"/>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
       <c r="D45" s="2">
         <v>2</v>
       </c>
@@ -6252,7 +6294,9 @@
       <c r="AD45" s="16">
         <v>45429</v>
       </c>
-      <c r="AE45" s="1"/>
+      <c r="AE45" s="1">
+        <v>2</v>
+      </c>
       <c r="AF45" s="2">
         <v>1</v>
       </c>
@@ -6278,13 +6322,24 @@
       <c r="BA45" s="5"/>
       <c r="BB45" s="5"/>
       <c r="BC45" s="6"/>
+      <c r="BG45" s="4"/>
+      <c r="BH45" s="5"/>
+      <c r="BI45" s="5"/>
+      <c r="BJ45" s="5"/>
+      <c r="BK45" s="5"/>
+      <c r="BL45" s="5"/>
+      <c r="BM45" s="5"/>
+      <c r="BN45" s="5"/>
+      <c r="BO45" s="5"/>
+      <c r="BP45" s="5"/>
+      <c r="BQ45" s="6"/>
       <c r="BU45" s="4"/>
       <c r="BV45" s="5"/>
       <c r="BW45" s="5"/>
       <c r="BX45" s="5"/>
       <c r="BY45" s="5"/>
       <c r="BZ45" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="CA45" s="5"/>
       <c r="CB45" s="5"/>
@@ -6292,7 +6347,7 @@
       <c r="CD45" s="5"/>
       <c r="CE45" s="6"/>
     </row>
-    <row r="46" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:84" x14ac:dyDescent="0.25">
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -6301,7 +6356,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
@@ -6318,7 +6373,9 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="6"/>
       <c r="AE46" s="4"/>
-      <c r="AF46" s="5"/>
+      <c r="AF46" s="5">
+        <v>2</v>
+      </c>
       <c r="AG46" s="5"/>
       <c r="AH46" s="5"/>
       <c r="AI46" s="5"/>
@@ -6341,21 +6398,30 @@
       <c r="BA46" s="5"/>
       <c r="BB46" s="5"/>
       <c r="BC46" s="6"/>
+      <c r="BG46" s="4"/>
+      <c r="BH46" s="5"/>
+      <c r="BI46" s="5"/>
+      <c r="BJ46" s="5"/>
+      <c r="BK46" s="5"/>
+      <c r="BL46" s="5"/>
+      <c r="BM46" s="5"/>
+      <c r="BN46" s="5"/>
+      <c r="BO46" s="5"/>
+      <c r="BP46" s="5"/>
+      <c r="BQ46" s="6"/>
       <c r="BU46" s="4"/>
       <c r="BV46" s="5"/>
       <c r="BW46" s="5"/>
       <c r="BX46" s="5"/>
       <c r="BY46" s="5"/>
-      <c r="BZ46" s="10">
-        <v>9</v>
-      </c>
+      <c r="BZ46" s="5"/>
       <c r="CA46" s="5"/>
       <c r="CB46" s="5"/>
       <c r="CC46" s="5"/>
       <c r="CD46" s="5"/>
       <c r="CE46" s="6"/>
     </row>
-    <row r="47" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:84" x14ac:dyDescent="0.25">
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -6400,25 +6466,30 @@
       <c r="BA47" s="5"/>
       <c r="BB47" s="5"/>
       <c r="BC47" s="6"/>
+      <c r="BG47" s="4"/>
+      <c r="BH47" s="5"/>
+      <c r="BI47" s="5"/>
+      <c r="BJ47" s="5"/>
+      <c r="BK47" s="5"/>
+      <c r="BL47" s="5"/>
+      <c r="BM47" s="5"/>
+      <c r="BN47" s="5"/>
+      <c r="BO47" s="5"/>
+      <c r="BP47" s="5"/>
+      <c r="BQ47" s="6"/>
       <c r="BU47" s="4"/>
       <c r="BV47" s="5"/>
       <c r="BW47" s="5"/>
       <c r="BX47" s="5"/>
       <c r="BY47" s="5"/>
-      <c r="BZ47" s="10">
-        <v>4</v>
-      </c>
+      <c r="BZ47" s="5"/>
       <c r="CA47" s="5"/>
       <c r="CB47" s="5"/>
       <c r="CC47" s="5"/>
       <c r="CD47" s="5"/>
       <c r="CE47" s="6"/>
-      <c r="CF47">
-        <f>CF48+CF37</f>
-        <v>126</v>
-      </c>
     </row>
-    <row r="48" spans="2:84" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:84" x14ac:dyDescent="0.25">
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -6430,6 +6501,10 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="6"/>
+      <c r="N48">
+        <f>N49+N42</f>
+        <v>122</v>
+      </c>
       <c r="Q48" s="4"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
@@ -6441,6 +6516,10 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
       <c r="AA48" s="6"/>
+      <c r="AB48">
+        <f>AB49+AB41</f>
+        <v>117</v>
+      </c>
       <c r="AE48" s="4"/>
       <c r="AF48" s="5"/>
       <c r="AG48" s="5"/>
@@ -6454,7 +6533,7 @@
       <c r="AO48" s="6"/>
       <c r="AP48">
         <f>AP49+AP42</f>
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AS48" s="4"/>
       <c r="AT48" s="5"/>
@@ -6469,271 +6548,330 @@
       <c r="BC48" s="6"/>
       <c r="BD48">
         <f>BD49+BD37</f>
-        <v>118.5</v>
-      </c>
-      <c r="BT48" s="16">
-        <v>45428</v>
-      </c>
-      <c r="BU48" s="7">
-        <f t="shared" ref="BU48:CE48" si="39">SUM(BU40:BU47)</f>
-        <v>9</v>
-      </c>
-      <c r="BV48" s="8">
-        <f t="shared" si="39"/>
-        <v>5</v>
-      </c>
-      <c r="BW48" s="8">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="BX48" s="8">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="BY48" s="8">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="BZ48" s="8">
-        <f t="shared" si="39"/>
-        <v>37</v>
-      </c>
-      <c r="CA48" s="8">
-        <f t="shared" si="39"/>
-        <v>2</v>
-      </c>
-      <c r="CB48" s="8">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="CC48" s="8">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="CD48" s="8">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="CE48" s="9">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="CF48" s="10">
-        <f>SUM(BU48:CE48)</f>
-        <v>53</v>
+        <v>122.5</v>
+      </c>
+      <c r="BG48" s="4"/>
+      <c r="BH48" s="5"/>
+      <c r="BI48" s="5"/>
+      <c r="BJ48" s="5"/>
+      <c r="BK48" s="5"/>
+      <c r="BL48" s="5"/>
+      <c r="BM48" s="5"/>
+      <c r="BN48" s="5"/>
+      <c r="BO48" s="5"/>
+      <c r="BP48" s="5"/>
+      <c r="BQ48" s="6"/>
+      <c r="BR48">
+        <f>BR37+BR49</f>
+        <v>102</v>
+      </c>
+      <c r="BU48" s="4"/>
+      <c r="BV48" s="5"/>
+      <c r="BW48" s="5"/>
+      <c r="BX48" s="5"/>
+      <c r="BY48" s="5"/>
+      <c r="BZ48" s="5"/>
+      <c r="CA48" s="5"/>
+      <c r="CB48" s="5"/>
+      <c r="CC48" s="5"/>
+      <c r="CD48" s="5"/>
+      <c r="CE48" s="6"/>
+      <c r="CF48">
+        <f>CF49+CF39</f>
+        <v>148</v>
       </c>
     </row>
-    <row r="49" spans="3:83" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:84" x14ac:dyDescent="0.25">
       <c r="C49" s="7">
         <f>SUM(C45:C48)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D49" s="8">
-        <f t="shared" ref="D49:M49" si="40">SUM(D45:D48)</f>
+        <f t="shared" ref="D49:M49" si="41">SUM(D45:D48)</f>
         <v>2</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="F49" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G49" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="H49" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="I49" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="J49" s="8">
-        <f t="shared" si="40"/>
-        <v>6</v>
+        <f t="shared" si="41"/>
+        <v>7</v>
       </c>
       <c r="K49" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="L49" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="M49" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N49" s="10">
         <f>SUM(C49:M49)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q49" s="7">
         <f>SUM(Q44:Q48)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R49" s="8">
-        <f t="shared" ref="R49:AA49" si="41">SUM(R44:R48)</f>
+        <f t="shared" ref="R49:AA49" si="42">SUM(R44:R48)</f>
         <v>0</v>
       </c>
       <c r="S49" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="T49" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="U49" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>3</v>
       </c>
       <c r="V49" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>3</v>
       </c>
       <c r="W49" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X49" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Y49" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z49" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AA49" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AB49" s="10">
         <f>SUM(Q49:AA49)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE49" s="7">
         <f>SUM(AE45:AE48)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF49" s="8">
-        <f t="shared" ref="AF49:AP49" si="42">SUM(AF45:AF48)</f>
-        <v>1</v>
+        <f t="shared" ref="AF49:AO49" si="43">SUM(AF45:AF48)</f>
+        <v>3</v>
       </c>
       <c r="AG49" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AH49" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AI49" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AJ49" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
       <c r="AK49" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AL49" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AM49" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AN49" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AO49" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AP49" s="10">
         <f>SUM(AE49:AO49)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AS49" s="7">
         <f>SUM(AS40:AS48)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT49" s="8">
-        <f t="shared" ref="AT49:BC49" si="43">SUM(AT40:AT48)</f>
+        <f t="shared" ref="AT49:BC49" si="44">SUM(AT40:AT48)</f>
         <v>0</v>
       </c>
       <c r="AU49" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AV49" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AW49" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="AX49" s="8">
-        <f t="shared" si="43"/>
-        <v>2</v>
+        <f t="shared" si="44"/>
+        <v>4</v>
       </c>
       <c r="AY49" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="AZ49" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="BA49" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="BB49" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="BC49" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="BD49" s="10">
         <f>SUM(AS49:BC49)</f>
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="BG49" s="7">
+        <f>SUM(BG40:BG48)</f>
+        <v>2</v>
+      </c>
+      <c r="BH49" s="8">
+        <f>SUM(BH40:BH48)</f>
+        <v>0</v>
+      </c>
+      <c r="BI49" s="8">
+        <f t="shared" ref="BI49:BP49" si="45">SUM(BI40:BI48)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ49" s="8">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="BK49" s="8">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="BL49" s="8">
+        <f t="shared" si="45"/>
+        <v>3</v>
+      </c>
+      <c r="BM49" s="8">
+        <f t="shared" si="45"/>
+        <v>4</v>
+      </c>
+      <c r="BN49" s="8">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="BO49" s="8">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="BP49" s="8">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="BQ49" s="9">
+        <f>SUM(BQ40:BQ48)</f>
+        <v>0</v>
+      </c>
+      <c r="BR49" s="10">
+        <f>SUM(BG49:BQ49)</f>
+        <v>9</v>
+      </c>
+      <c r="BU49" s="7">
+        <f>SUM(BU42:BU48)</f>
+        <v>2</v>
+      </c>
+      <c r="BV49" s="8">
+        <f>SUM(BV42:BV48)</f>
+        <v>4</v>
+      </c>
+      <c r="BW49" s="8">
+        <f>SUM(BW42:BW48)</f>
+        <v>0</v>
+      </c>
+      <c r="BX49" s="8">
+        <f t="shared" ref="BX49:BY49" si="46">SUM(BX42:BX48)</f>
+        <v>0</v>
+      </c>
+      <c r="BY49" s="8">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="BZ49" s="8">
+        <f>SUM(BZ42:BZ48)</f>
+        <v>16</v>
+      </c>
+      <c r="CA49" s="8">
+        <f t="shared" ref="CA49:CD49" si="47">SUM(CA42:CA48)</f>
+        <v>0</v>
+      </c>
+      <c r="CB49" s="8">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="CC49" s="8">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="CD49" s="8">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="CE49" s="9">
+        <f>SUM(CE42:CE48)</f>
+        <v>0</v>
+      </c>
+      <c r="CF49" s="10">
+        <f>SUM(BU49:CE49)</f>
+        <v>22</v>
       </c>
     </row>
-    <row r="50" spans="3:83" x14ac:dyDescent="0.35">
-      <c r="BT50" s="16">
-        <v>45429</v>
-      </c>
-      <c r="BU50" s="2"/>
-      <c r="BV50" s="2"/>
-      <c r="BW50" s="2"/>
-      <c r="BX50" s="2"/>
-      <c r="BY50" s="2"/>
-      <c r="BZ50" s="2"/>
-      <c r="CA50" s="2"/>
-      <c r="CB50" s="2"/>
-      <c r="CC50" s="2"/>
-      <c r="CD50" s="2"/>
-      <c r="CE50" s="2"/>
-    </row>
-    <row r="64" spans="3:83" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:84" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>6</v>
       </c>
@@ -6768,45 +6906,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C65">
-        <f>C1+Q1+AE1+AS1+BG1+BU1</f>
-        <v>261</v>
+        <v>53</v>
       </c>
       <c r="D65">
-        <f t="shared" ref="D65:L65" si="44">D1+R1+AF1+AT1+BH1+BV1</f>
-        <v>29</v>
+        <f t="shared" ref="D65:L65" si="48">D1+R1+AF1+AT1+BH1+BV1</f>
+        <v>35</v>
       </c>
       <c r="E65">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>7</v>
       </c>
       <c r="F65">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>54</v>
       </c>
       <c r="G65">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>13</v>
       </c>
       <c r="H65">
-        <f t="shared" si="44"/>
-        <v>127</v>
+        <f t="shared" si="48"/>
+        <v>148</v>
       </c>
       <c r="I65">
-        <f t="shared" si="44"/>
-        <v>43</v>
+        <f t="shared" si="48"/>
+        <v>47</v>
       </c>
       <c r="J65">
-        <f t="shared" si="44"/>
-        <v>23</v>
+        <f t="shared" si="48"/>
+        <v>24</v>
       </c>
       <c r="K65">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>15</v>
       </c>
       <c r="L65">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>47.5</v>
       </c>
       <c r="M65">
@@ -6815,13 +6952,10 @@
       </c>
       <c r="N65">
         <f>SUM(C65:M65)</f>
-        <v>669.5</v>
+        <v>493.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="BU5:CE11"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>